--- a/finetuning/it_datasets/qa_dataset/qa_it_sidi bouzid_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_sidi bouzid_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A1:AB72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -663,12 +668,57 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a top-rated cafe, check out Cafe Phinix located at 2FH4+HGM Cafe Phinix, Sidi Bouzid. This cafe offers a range of options for cafe enthusiasts and has a rating of 4.3. It's open from 6:00 AM to 2:00 AM every day. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>Café Phinix, located in Sidi Bouzid at coordinates (35.0388485, 9.4902576), is a top-rated cafe with a 4.3 rating based on 24 reviews. Open from 6:00 AM to 2:00 AM daily, Café Phinix offers a vibrant and welcoming ambiance. The cafe specializes in delicious coffee and beverages, making it an ideal spot for coffee enthusiasts and those seeking a relaxing atmosphere.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Cafe Phinix with a rating of 4.3 located in Sidi Bouzid?</t>
+          <t>Day Plan:
+Morning: Explore the historic abbey of Sidi Bouzid, a popular tourist destination.
+Mid-Morning: Visit the ISIE Sidi Bouzid, a government building that offers administrative services to the region.
+Midday: Try local cuisine at **MIX FOOD**, a highly-rated Mexican restaurant with a 5.0 rating.
+Afternoon: Engage in outdoor activities at Sidi Bouzid, a Kinesiology practice that offers recreational activities.
+Evening: Enjoy scenic views at YAHYAOUI COFFEE, a cafe with 24-hour service and highly rated by customers.
+Night: Relax with a traditional Hammam experience at a local spa or hotel.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+YAHYAOUI COFFEE is a cafe located in Sidi Bouzid, Tunisia. It offers 24 hour service and is highly rated by customers. It is located at 2FQM+2W7 YAHYAOUI COFFEE, Bd Mohamed Bouazizi, with coordinates (35.0388485, 9.4902576).
+The Gold is a well-rated tea salon in Sidi Bouzid, Tunisia, that offers a cozy and relaxing atmosphere with a 4.3-star rating based on 3 reviews. It is located at coordinates (35.034902, 9.4619265) on Bd Mohamed Bouazizi.
+El Pescador Restaurant is a restaurant located in Sidi Bouzid, Tunisia (35.0388485, 9.4902576). It has a 4.5 rating on Google based on 12 reviews. It is open every day from 11:00 to 22:30, except on Saturdays and Sundays, and offers a wide range of dining options.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -770,14 +820,57 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great cafe, check out Cafe La piazza. 
-This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:30-22:30, but closed on dimanche. To get there, use these GPS coordinates: 33.2304819, -8.5518921. Visit their website or call them for more details.</t>
+          <t>Cafe La piazza is a cafe located in Sidi Bouzid, offering a cozy ambiance and a range of menu items. It's open from 07:30-22:30 during the week and closed on Sundays. It has received positive reviews from customers, with some mentioning a great experience.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you find Cafe La Piazza, a highly-rated cafe with a 4.0 rating and cafe options galore, making it a top choice for cafe enthusiasts in Sidi Bouzid?</t>
+          <t>Day Plan:
+Morning: Explore the historic Sidi Bouzid Abbey, admiring its religious and architectural significance.
+Mid-Morning: Savor the delectable culinary delights at L'yasmina, indulging in the highly-rated restaurant's exceptional cuisine.
+Midday: Experience cultural immersion at Societe de Mohamed, exploring the history and development of technology with a focus on the local industry.
+Afternoon: Enjoy scenic views and engage in outdoor activities at the beautiful Kimo Cafe, relaxing in its cozy ambiance amidst the heart of Sidi Bouzid.
+Evening: Try local cuisine at MIX FOOD, a highly-rated Mexican restaurant that promises an authentic dining experience.
+Night: Participate in the lively atmosphere at ROXY Pizzeria, offering a wide variety of pizzas and a vibrant ambiance open 24 hours a day.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Kimo cafe** is a cozy cafe located in Sidi Bouzid, Tunisia. It offers a warm and inviting atmosphere, perfect for relaxing and enjoying a cup of coffee or tea. The cafe also serves a variety of pastries and snacks, making it the perfect place to grab a bite to eat. Kimo cafe is conveniently located in the heart of Sidi Bouzid, making it easy to access. With its friendly staff and great coffee, Kimo cafe is the perfect place to relax and enjoy a moment of peace.
+Casablanca is a tea room located in Sidi Bouzid, Tunisia, at the coordinates (35.0388485, 9.4902576). It is highly rated, with 4.6 stars based on 10 reviews. Casablanca is open daily from 7:00 AM to midnight and offers a cozy ambiance for enjoying a cup of tea.
+L'yasmina, a renowned restaurant situated at 2FQQ+QMF L'yasmina, rue ibn mandhour, Sidi Bouzid, offers delectable culinary delights. Boasting a remarkable rating of 4.8, it is renowned for its exceptional cuisine. With a convenient opening time of 8 AM to 9 PM, excluding Sundays, it provides a welcoming atmosphere for diners.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -883,15 +976,57 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you find yourself in Sidi Bouzid and searching for a delightful cafe experience, head over to Cafe El woroud, conveniently located at 2FM9+7FF, Cafe El woroud, C125. 
-A top-rated destination among cafe enthusiasts, it offers a 4.8 rating and a wide selection of cafe options to satisfy your cravings. 
-Cafe El woroud opens its doors daily from 6:00 AM to 12:00 AM, welcoming you to indulge in their offerings. 
-For further inquiries, you can reach them via phone at 53 577 616. Please note that the Cafe is closed on, but the specific days are not provided.</t>
+          <t>Cafe El woroud is a highly-rated cafe in Sidi Bouzid, Tunisia, boasting a 4.8-star rating from 20 reviews. Situated at coordinates (35.034902, 9.4619265), it is open daily from 6 AM to midnight. While the cafe's description is currently unavailable, it offers a cozy ambiance for customers to enjoy its coffee and cafe menu.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find Cafe El woroud, a highly-rated cafe with extended hours and a vast menu selection?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Sidi Bouzid Abbey.
+Mid-Morning: Visit the ISIE Sidi Bouzid for administrative services.
+Midday: Enjoy a delicious meal at the highly-rated MIX FOOD Mexican restaurant.
+Afternoon: Visit the Societe de Mohamed technology museum to delve into the area's industry.
+Evening: Take a leisurely walk through the park and enjoy the outdoor ambiance at ROXY Pizzeria.
+Night: Relax and unwind at the cozy Kimo cafe, savoring a warm drink and the inviting atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Kimo cafe** is a cozy cafe located in Sidi Bouzid, Tunisia. It offers a warm and inviting atmosphere, perfect for relaxing and enjoying a cup of coffee or tea. The cafe also serves a variety of pastries and snacks, making it the perfect place to grab a bite to eat. Kimo cafe is conveniently located in the heart of Sidi Bouzid, making it easy to access. With its friendly staff and great coffee, Kimo cafe is the perfect place to relax and enjoy a moment of peace.
+The Gold is a tea room located in Sidi Bouzid. It has a rating of 4.3 out of 5 stars based on 3 reviews. The featured image shows a cozy and inviting atmosphere.
+Restaurant Alkhayma Sidi Bouzid is a 5-star restaurant located in Sidi Bouzid, Tunisia. It offers a variety of dishes, and is open from 8am to 9pm. The restaurant is located at Bd Mohamed Bouazizi, and can be contacted at 90 363 142.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -993,12 +1128,57 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a delightful place to relax, visit The Lodge, located on Unnamed Road, 9100 Av. De Baghdad. This top-rated tea salon welcomes tea enthusiasts and offers a cozy atmosphere. With a rating of 4.6, it's a must-try destination. It's open from 8:00 AM to midnight every day. For more information, visit the link provided.</t>
+          <t>Nestled in the heart of Sidi Bouzid, "The Lodge" is a charming tea room that offers a delightful escape. Situated at coordinates (35.034902, 9.4619265), it welcomes guests to savor a delectable breakfast in a cozy and inviting ambiance.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>What is the name and location of the highly-rated tea salon in Sidi Bouzid, renowned for its welcoming atmosphere?</t>
+          <t>Day Plan:
+Morning: Explore the historic Sidi Bouzid Abbey, a popular tourist destination known for its religious and historical significance.
+Mid-Morning: Visit ISIE Sidi Bouzid, a government building that offers a glimpse into the administrative functions of the region.
+Midday: Indulge in a delicious meal of traditional Tunisian cuisine at Café Restaurant BALANCE, a highly-rated establishment with a cozy ambiance and a menu featuring a variety of cafe fare.
+Afternoon: Head to ROXY Pizzeria for a delightful lunch of freshly baked pizzas. With a 4.0-star rating, it's a popular spot among locals and tourists alike.
+Evening: Try local seafood dishes at the well-rated recipe-fish-seafood restaurant, known for its 5.0-star rating and 24-hour service.
+Night: Unwind at The Gold tea salon, a relaxing and cozy spot with a 4.3-star rating, perfect for enjoying a refreshing beverage and soaking up the local atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Restaurant BALANCE is a cafe located in Sidi Bouzid, Tunisia. It has a rating of 4.5 stars based on 2 reviews. It is open from 8:00 AM to 8:00 PM and offers a variety of cafe fare. The cafe is located at the coordinates (35.034902, 9.4619265).
+The Gold is a well-rated tea salon in Sidi Bouzid, Tunisia, that offers a cozy and relaxing atmosphere with a 4.3-star rating based on 3 reviews. It is located at coordinates (35.034902, 9.4619265) on Bd Mohamed Bouazizi.
+Jet Set is a restaurant located in Sidi Bouzid, Tunisia, offering a variety of dishes and beverages. It is situated at coordinates (35.0388485, 9.4902576), has received a rating of 4.1 out of 5 based on 27 reviews, and is open from 4:00 AM to midnight every day.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1100,12 +1280,57 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great cafe, check out 2B Coffee located at 2FGG+3J 2B Coffee. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 94 938 209.</t>
+          <t>2B Coffee is a cafe located in Sidi Bouzid, Tunisia. It has a rating of 4.4 stars based on 17 reviews. The cafe is open daily and offers a variety of coffee drinks, as well as pastries and other snacks. 2B Coffee is located at 2FGG+3J, Sidi Bouzid, Tunisia.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe with a wide selection in Sidi Bouzid?</t>
+          <t>Day Plan:
+Morning: Exploring Sidi Bouzid and visiting the ISIE Sidi Bouzid government building for local government-related tasks.
+Mid-Morning: Trying local cuisine at RESTAURANT LA MAMMA, known for its appetizing dishes and high ratings.
+Midday: Visiting Sidi Bouzid abbey, a popular tourist destination with historical and religious significance.
+Afternoon: Taking a guided tour of Societe de Mohamed technology museum to explore the history and development of local industry.
+Evening: Enjoying scenic views at Sidi Bouzid outdoor location, offering captivating vistas of the surroundings.
+Night: Trying the highly-rated Mexican cuisine at MIX FOOD restaurant, known for its delicious offerings and inviting ambiance.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Cafe Belvue, a cozy cafe located in the heart of Sidi Bouzid. Known for its welcoming atmosphere, Cafe Belvue offers a wide selection of coffee, tea, and pastries to savor. Situated at coordinates (35.034902, 9.4619265), it's the perfect spot to relax, socialize, and enjoy a delightful break.
+Nestled in the heart of Sidi Bouzid, "The Lodge" is a charming tea room that offers a delightful escape. Situated at coordinates (35.034902, 9.4619265), it welcomes guests to savor a delectable breakfast in a cozy and inviting ambiance.
+RESTAURANT LA MAMMA is a restaurant located in Sidi Bouzid (Tunisia) at the coordinates (35.031703412371, 9.465656233972). It has a rating of 4.4 out of 5 based on 9 reviews and is open from 00:00 to 23:00 every day except Sunday. The restaurant's main category is Restaurant.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1215,12 +1440,57 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great cafe, check out Selfie Coffee Shop located at 2FM9+MX6 Selfie Coffee Shop. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website at http://selfie.com/ or call them at 52 191 809.</t>
+          <t>Selfie Coffee Shop, located in Sidi Bouzid (35.0388485, 9.4902576), is an establishment that stays open 24/7. It offers a variety of amenities to its customers, including Wi-Fi and outdoor seating. Customers enjoy the cozy ambiance of the coffee shop and the friendly service.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Which highly-rated cafe with a variety of options can be found in Sidi Bouzid?</t>
+          <t>Day Plan:
+Morning: Explore Sidi Bouzid, a town with a rich history and cultural heritage.
+Mid-Morning: Visit Pizzeria Maboub, a top-rated pizzeria known for its delicious pizzas.
+Midday: Engage in outdoor activities at one of Sidi Bouzid's parks, such as enjoying a picnic or renting a bike for a leisurely ride.
+Afternoon: Take a relaxing break at a local spa, indulging in a massage or enjoying a beauty treatment.
+Evening: Experience the vibrant atmosphere of the night market, browsing for local crafts and souvenirs.
+Night: Immerse yourself in the local culture by attending a traditional music or dance performance at a cultural center.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El Amir is a cafe located in Sidi Bouzid, Tunisia. The cafe is rated 5.0 stars on Google and has received 4 reviews. The cafe's main category is Cafe and its coordinates are (35.0388485, 9.4902576). The cafe's featured image is https://lh5.googleusercontent.com/p/AF1QipMKqsS4-oRJZ1v_SOPCHLgHCgRxSxOE3WT3iOYf=w408-h725-k-no.
+Casablanca is a tea room located in Sidi Bouzid, Tunisia, at the coordinates (35.0388485, 9.4902576). It is highly rated, with 4.6 stars based on 10 reviews. Casablanca is open daily from 7:00 AM to midnight and offers a cozy ambiance for enjoying a cup of tea.
+**mT`m lmr `byd - Restaurant Abid** is a restaurant located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid (35.0388485, 9.4902576). Its rating is 5/5 with 1 review. No other information is available at this day.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1596,57 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Big 4 Coffee Lounge located at Centre Souissi a cote de Boutique Hammadi, Abid, Sidi Bouzid 9100. This top-rated destination is perfect for Salon de the lovers. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, visit their website at https://www.google.com/maps/place/Big+4+Coffee+Lounge/data=!4m7!3m6!1s0x12fec3308984a05f:0xbf67d6f5d397eba6!8m2!3d35.0322326!4d9.4705995!16s%2Fg%2F11q21pqv5k!19sChIJX6CEiTDD_hIRpuuX0_XWZ78?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 417 323.</t>
+          <t>**Big 4 Coffee Lounge**: A cozy coffee lounge located in the heart of Sidi Bouzid, Tunisia. Situated at coordinates (35.034902, 9.4619265), it offers a relaxing ambiance and a delightful menu of coffee, tea, and snacks.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated "Salon de the" in Sidi Bouzid, located at Centre Souissi?</t>
+          <t>Day Plan:
+Morning: Explore Sidi Bouzid's history and culture at the Sidi Bouzid abbey (35.034902, 9.4619265).
+Mid-Morning: Visit the ISIE Sidi Bouzid for a glimpse into the region's governance and administrative services.
+Midday: Indulge in a traditional Tunisian lunch at mT`m lTrbwsh Restaurant Tarbouch, known for its delectable dishes.
+Afternoon: Discover the fascinating world of technology at Societe de Mohamed, a museum showcasing the local industry's history and advancements.
+Evening: Enjoy a serene walk along the scenic Sidi Bouzid coastline, taking in the beauty of the Mediterranean Sea.
+Night: Experience the vibrant atmosphere of **MIX FOOD**, a highly-rated Mexican restaurant in Sidi Bouzid, savoring its authentic Mexican cuisine.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+COSTA CAFE is a cafe located at(35.0388485, 9.4902576) in sidi bouzid. It has a rating of 4.3 based on 3 reviews and offers various amenities such as a featured image, website, phone number, address, and categories like Cafe.
+Casablanca is a tea room located in Sidi Bouzid, Tunisia, at the coordinates (35.0388485, 9.4902576). It is highly rated, with 4.6 stars based on 10 reviews. Casablanca is open daily from 7:00 AM to midnight and offers a cozy ambiance for enjoying a cup of tea.
+mT`m lTrbwsh Restaurant Tarbouch is a restaurant located in Sidi Bouzid. It has a rating of 4.8 stars and offers a variety of dishes. The restaurant is located at 2FQM+5FX mT`m lTrbwsh Restaurant Tarbouch, nhj ljm`, Sidi Bouzid, with the coordinates (35.0388485, 9.4902576).
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1752,57 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a relaxing place to unwind, check out Casablanca located at Bd Mohamed Bouazizi. This top-rated destination is perfect for tea lovers. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 54 771 771.</t>
+          <t>Casablanca is a 4.6-rated tea room located in Sidi Bouzid, Tunisia. It is open from 7am to midnight every day, and serves a variety of teas and pastries. Casablanca also has a featured image, reviews, and a link to its website.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can tea lovers find a highly-rated and relaxing spot called Casablanca in Sidi Bouzid?</t>
+          <t>Day Plan:
+Morning: Explore the historic Sidi Bouzid Abbey.
+Mid-Morning: Try local cuisine at the highly-rated MIX FOOD Mexican restaurant.
+Midday: Visit the ISIE Sidi Bouzid government building to learn about local governance.
+Afternoon: Enjoy a relaxing walk through the serene Sidi Bouzid park.
+Evening: Have dinner at ROXY Pizzeria, known for its delicious pizzas and lively atmosphere.
+Night: Experience the cultural immersion at the Societe de Mohamed technology museum.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+YAHYAOUI COFFEE is a cafe located in Sidi Bouzid, Tunisia. It offers 24 hour service and is highly rated by customers. It is located at 2FQM+2W7 YAHYAOUI COFFEE, Bd Mohamed Bouazizi, with coordinates (35.0388485, 9.4902576).
+**Big 4 Coffee Lounge**: A cozy coffee lounge located in the heart of Sidi Bouzid, Tunisia. Situated at coordinates (35.034902, 9.4619265), it offers a relaxing ambiance and a delightful menu of coffee, tea, and snacks.
+**Break Time Fast Food** in Sidi Bouzid is a highly-rated restaurant (5.0 stars from 1 review) that opens from 7:00 AM to 10:00 AM daily. It is closed on Sundays. Located at coordinates (35.0388485, 9.4902576), the restaurant's main category is "Restaurant" and it offers various dining options to customers in the area.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1548,12 +1908,57 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a top-rated Cafe, check out Cafe La Phalene located at 2FMF+46Q Cafe La Phalene. This must-visit spot has a rating of 5.0 and is open daily from 08:00-00:00. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 52 169 197.</t>
+          <t>Cafe La Phalene is a highly-rated cafe located in the heart of Sidi Bouzid, Tunisia. It is known for its cozy atmosphere and delicious coffee and pastries. The cafe is open from 8am to midnight, seven days a week, making it a great place to relax and enjoy a cup of coffee at any time of day or night.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where can you find Cafe La Phalene, a top-rated Cafe with a 5.0 rating and extended hours in Sidi Bouzid?</t>
+          <t>Day Plan:
+Morning: Exploring Sidi Bouzid city center with its charming streets and local markets.
+Mid-Morning: Trying local cuisine at Pizzeria Maboub, known for its delicious pizzas and excellent ratings.
+Midday: Visiting Sidi Bouzid Abbey, a popular tourist destination with unique architectural features.
+Afternoon: Relaxing with a traditional massage at one of the local spas or massage parlors.
+Evening: Enjoying scenic views of the city at the Sidi Bouzid City Park.
+Night: Participating in a cultural event at the local theatre or cultural center, showcasing traditional music and dance.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+BIG SMARI JUICE is a 5-star rated cafe located in Sidi Bouzid at coordinates (35.0388485, 9.4902576). Open from 7:00 AM to 7:00 PM, it features a variety of cafe offerings.
+The Gold is a tea room located in Sidi Bouzid. It has a rating of 4.3 out of 5 stars based on 3 reviews. The featured image shows a cozy and inviting atmosphere.
+RESTAURANT LA MAMMA is a restaurant located in Sidi Bouzid (Tunisia) at the coordinates (35.031703412371, 9.465656233972). It has a rating of 4.4 out of 5 based on 9 reviews and is open from 00:00 to 23:00 every day except Sunday. The restaurant's main category is Restaurant.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1655,12 +2060,57 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated Cafe, check out La Terasse located at La Terasse, Sidi Bouzid. This popular destination offers a range of Cafe options to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 06:30-00:00, but closed on . To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>La Terasse is a popular cafe with high ratings and positive reviews. It is located in Sidi Bouzid and serves a wide variety of food and drinks in a friendly and inviting atmosphere. The cafe is known for its delicious coffee, pastries, and sandwiches. It is also a great place to meet friends and relax. The cafe is open from 6:30 am to midnight, seven days a week.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>What is the highly rated Café with a 4.8 rating located in Sidi Bouzid, Morocco?</t>
+          <t>Day Plan:
+Morning: Explore the quaint tea room, "The Lodge," for a delightful breakfast and cozy ambiance.
+Mid-Morning: Visit the technology museum, Societe de Mohamed, to learn about the history and development of technology.
+Midday: Savor a traditional Tunisian lunch at El Pescador Restaurant, known for its delicious seafood dishes.
+Afternoon: Take a guided tour of the ISIE Sidi Bouzid, a government building offering insights into the region's administration.
+Evening: Try local cuisine at the highly-rated **MIX FOOD** Mexican restaurant, known for its authentic Mexican flavors.
+Night: Experience the vibrant atmosphere of ROXY Pizzeria, open 24 hours and offering a wide variety of pizzas to satisfy your cravings.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Selfie Coffee Shop, located in Sidi Bouzid (35.0388485, 9.4902576), is an establishment that stays open 24/7. It offers a variety of amenities to its customers, including Wi-Fi and outdoor seating. Customers enjoy the cozy ambiance of the coffee shop and the friendly service.
+Nestled in the heart of Sidi Bouzid, "The Lodge" is a charming tea room that offers a delightful escape. Situated at coordinates (35.034902, 9.4619265), it welcomes guests to savor a delectable breakfast in a cozy and inviting ambiance.
+El Pescador Restaurant is a restaurant located in Sidi Bouzid, Tunisia (35.0388485, 9.4902576). It has a 4.5 rating on Google based on 12 reviews. It is open every day from 11:00 to 22:30, except on Saturdays and Sundays, and offers a wide range of dining options.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1762,12 +2212,57 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great Cafe, check out Cafe Paris located at 2FMF+9JC Cafe Paris, Sidi Bouzid. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Paris/data=!4m7!3m6!1s0x12fec34661ce8f67:0x47ccae6e56fe4dce!8m2!3d35.0334338!4d9.4740155!16s%2Fg%2F11d_d4jmg2!19sChIJZ4_OYUbD_hIRzk3-Vm6uzEc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at None.</t>
+          <t>Cafe Paris is a highly-rated cafe in Sidi Bouzid, offering delicious food and beverages. Its cozy ambiance and friendly staff make it a great place to relax and socialize. The cafe is conveniently located at (35.0388485, 9.4902576), making it easily accessible to customers in the area.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find Cafe Paris, a top-rated cafe with a rating of 4.4?</t>
+          <t>Day Plan:
+Morning: Explore **Sidi Bouzid**'s historic abbey for its religious and historical significance.
+Mid-Morning: Visit **Societe de Mohamed** to immerse in the local technological advancements.
+Midday: Enjoy a satisfying lunch at the 5-star **Restaurant Alkhayma Sidi Bouzid** for a taste of local cuisine.
+Afternoon: Relax and rejuvenate with a soothing spa treatment at a luxurious hotel in the city.
+Evening: Indulge in delicious Mexican flavors at the highly-rated **MIX FOOD** restaurant.
+Night: Experience the vibrant atmosphere of **ROXY Pizzeria** while enjoying a delectable pizza.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+YAHYAOUI COFFEE is a cafe located in Sidi Bouzid, Tunisia. It offers 24 hour service and is highly rated by customers. It is located at 2FQM+2W7 YAHYAOUI COFFEE, Bd Mohamed Bouazizi, with coordinates (35.0388485, 9.4902576).
+Casablanca is a tea room located in Sidi Bouzid, Tunisia, at the coordinates (35.0388485, 9.4902576). It is highly rated, with 4.6 stars based on 10 reviews. Casablanca is open daily from 7:00 AM to midnight and offers a cozy ambiance for enjoying a cup of tea.
+Restaurant Alkhayma Sidi Bouzid is a 5-star restaurant located in Sidi Bouzid, Tunisia. It offers a variety of dishes, and is open from 8am to 9pm. The restaurant is located at Bd Mohamed Bouazizi, and can be contacted at 90 363 142.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1873,12 +2368,58 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and craving a caffeine fix, head to Kamchatka lounge coffee at 2FMR+3XV. This top-rated cafe is known for its cozy atmosphere and delicious coffee. They're open from 8 AM to midnight, every day of the week. To get there, just use the GPS coordinates: 35.0388485, 9.4902576. For more info, call them at 97 554 109.</t>
+          <t>Kamchatka lounge coffee is a cafe located in Sidi Bouzid, Tunisia. It's a great place to relax and enjoy a cup of coffee or tea. The cafe also offers a variety of snacks and pastries. Kamchatka lounge coffee is located at 2FMR+3XV Sidi Bouzid, Tunisia. It is open from 8:00am to 12:00am, 7 days a week.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated coffee shop with a cozy ambiance in Sidi Bouzid?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the charming "The Lodge" tea room, savoring a delightful breakfast in its cozy ambiance.
+**Mid-Morning:** Visit the Kinesiology practice in Sidi Bouzid for a relaxing and revitalizing session.
+**Midday:** Try local cuisine at the highly-rated Mexican restaurant "**MIX FOOD**," indulging in authentic flavors and friendly service.
+**Afternoon:** Engage in outdoor activities at the scenic ROXY Pizzeria. Take a stroll, enjoy the vibrant atmosphere, and savor delicious pizzas.
+**Evening:** Explore the historical and cultural significance of Sidi Bouzid Abbey, immersing yourself in its architectural beauty and rich history.
+**Night:** Relax and unwind at a traditional cafe like Cafe La piazza. Enjoy a cozy ambiance, sip on beverages, and savor the local atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La piazza is a cafe located in Sidi Bouzid, offering a cozy ambiance and a range of menu items. It's open from 07:30-22:30 during the week and closed on Sundays. It has received positive reviews from customers, with some mentioning a great experience.
+Nestled in the heart of Sidi Bouzid, "The Lodge" is a charming tea room that offers a delightful escape. Situated at coordinates (35.034902, 9.4619265), it welcomes guests to savor a delectable breakfast in a cozy and inviting ambiance.
+The RESTAURANT LA MAMMA is located in Sidi Bouzid, Tunisia, at the following coordinates: (35.031703412371, 9.465656233972). 
+This restaurant offers a variety of dishes and has received a 4.4-star rating. It is open from 00:00-23:00, but closed on Sundays. You can reach the restaurant by phone at 98 235 744.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1988,12 +2529,65 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Cafe BROOKLYN at 2FPJ+66W Cafe BROOKLYN, Sidi Bouzid. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website at https://www.facebook.com/1131197830365908/posts/1133600320125659/ or call them at 97 222 085.</t>
+          <t>Cafe BROOKLYN is a highly-rated cafe located in Sidi Bouzid, Tunisia. It offers a variety of services, including:
+- Coffee and tea
+- Breakfast and lunch
+- Pastries and desserts
+- WiFi and comfortable seating
+The cafe is open from 6am to 10pm, and is closed on Sundays. It is located at the following address:
+2FPJ+66W Cafe BROOKLYN, Sidi Bouzid
+Cafe BROOKLYN is a great place to relax and enjoy a cup of coffee or tea. The staff is friendly and the atmosphere is relaxed.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe in Sidi Bouzid, renowned for its selection of Cafe and a stellar rating of 5.0?</t>
+          <t>Day Plan:
+Morning: Explore the Sidi Bouzid abbey, a popular tourist destination with religious and historical significance.
+Mid-Morning: Visit the Societe de Mohamed technology museum to gain insights into the local industry's history and development.
+Midday: Try local cuisine at RESTAURANT LA MAMMA, known for its diverse menu and 4.4-star rating.
+Afternoon: Experience cultural immersion at the ISIE Sidi Bouzid administrative establishment, offering a glimpse into local governance.
+Evening: Enjoy a delicious Mexican dinner at **MIX FOOD**, a highly-rated Mexican restaurant with a cozy ambiance.
+Night: Relax and unwind at a traditional hammam or spa in Sidi Bouzid, offering a rejuvenating end to the day.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El woroud is a highly-rated cafe in Sidi Bouzid, Tunisia, boasting a 4.8-star rating from 20 reviews. Situated at coordinates (35.034902, 9.4619265), it is open daily from 6 AM to midnight. While the cafe's description is currently unavailable, it offers a cozy ambiance for customers to enjoy its coffee and cafe menu.
+Nestled in the heart of Sidi Bouzid, "The Lodge" is a charming tea room that offers a delightful escape. Situated at coordinates (35.034902, 9.4619265), it welcomes guests to savor a delectable breakfast in a cozy and inviting ambiance.
+The RESTAURANT LA MAMMA is located in Sidi Bouzid, Tunisia, at the following coordinates: (35.031703412371, 9.465656233972). 
+This restaurant offers a variety of dishes and has received a 4.4-star rating. It is open from 00:00-23:00, but closed on Sundays. You can reach the restaurant by phone at 98 235 744.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2099,12 +2693,64 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and searching for a captivating experience, visit FABRICA at 2FPM+VGQ FABRICA. This top-rated destination is perfect for cafe lovers. With an impressive rating of 4.8, this spot is a must-visit spot. FABRICA's hours of operation are from 07:00-21:00. For easy navigation, utilize these GPS coordinates: 35.0388485, 9.4902576. For further information, contact FABRICA at 97 900 866.</t>
+          <t>FABRICA, a highly-rated cafe located at coordinates (35.0388485, 9.4902576) in Sidi Bouzid, is a popular destination with 4 reviews and a rating of 4.8. Open from 7 AM to 9 PM daily, it offers a cozy and welcoming ambiance to enjoy your favorite beverages and snacks.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>What highly-rated cafe with an impressive 4.8 rating is worth visiting in Sidi Bouzid?</t>
+          <t>Day Plan:
+Morning: Explore the historical Sidi Bouzid abbey, marveling at its religious and architectural significance.
+Mid-Morning: Visit the Bouzid mechanic shop to witness skilled craftsmanship in vehicle repair and maintenance.
+Midday: Indulge in the authentic flavors of Tunisian cuisine at **MIX FOOD**, savoring the tantalizing Mexican dishes.
+Afternoon: Experience the serene atmosphere of Sidi Bouzid kinesitherapy center, rejuvenating your body and mind with professional treatments.
+Evening: Take a leisurely stroll through the charming streets of Sidi Bouzid, immersing yourself in the local culture and ambiance.
+Night: Relish a memorable dining experience at recipe-fish-seafood, delighting in fresh and delicious seafood specialties.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe BROOKLYN is a highly-rated cafe located in Sidi Bouzid, Tunisia. It offers a variety of services, including:
+- Coffee and tea
+- Breakfast and lunch
+- Pastries and desserts
+- WiFi and comfortable seating
+The cafe is open from 6am to 10pm, and is closed on Sundays. It is located at the following address:
+2FPJ+66W Cafe BROOKLYN, Sidi Bouzid
+Cafe BROOKLYN is a great place to relax and enjoy a cup of coffee or tea. The staff is friendly and the atmosphere is relaxed.
+Casablanca is a 4.6-rated tea room located in Sidi Bouzid, Tunisia. It is open from 7am to midnight every day, and serves a variety of teas and pastries. Casablanca also has a featured image, reviews, and a link to its website.
+Pizza_Maestro is a 4.0 star rated restaurant located in Sidi Bouzid, Tunisia. It has 8 reviews and is open from 8:00 AM to 11:00 PM.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2202,12 +2848,57 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a great cafe, check out Cafe Mimo's located at 2FMF+258. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during weekday hours, but closed on unknown days. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website.</t>
+          <t>Cafe Mimo's is a cafe located in Sidi Bouzid, Tunisia. It is rated 4.5 out of 5 stars on Google Maps, and offers a variety of coffee, tea, and snacks. The cafe is open from 8am to 10pm, and is located at 2FMF+258, Sidi Bouzid.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where can I find a highly rated cafe called Cafe Mimo's in Sidi Bouzid that offers various categories and has a rating of 4.5?</t>
+          <t>Day Plan:
+Morning: Explore Sidi Bouzid, a historic city with many mosques and a lively market.
+Mid-Morning: Visit the Sidi Bouzid Kinesitherapy Center for a relaxing massage or treatment.
+Midday: Try local cuisine at Break Time Fast Food, a highly-rated restaurant with a 5.0-star rating.
+Afternoon: Enjoy scenic views at the Sidi Bouzid Abbey, a beautiful architectural landmark.
+Evening: Engage in outdoor activities like hiking or biking at the nearby Sidi Bouzid Park.
+Night: Experience cultural immersion at the Societe de Mohamed Technology Museum, offering a glimpse into the region's technological history.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Volcano, located in Sidi Bouzid, is an exceptional cafe with a 4.7-star rating. It is a popular spot for locals and tourists alike. The cafe offers a wide variety of coffee, tea, and other beverages. It is also a great place to relax and enjoy the vibrant atmosphere of Sidi Bouzid. The cafe is open from 6:00 AM to 11:00 PM seven days a week.
+The Gold is a tea room located in Sidi Bouzid. It has a rating of 4.3 out of 5 stars based on 3 reviews. The featured image shows a cozy and inviting atmosphere.
+**Break Time Fast Food** in Sidi Bouzid is a highly-rated restaurant (5.0 stars from 1 review) that opens from 7:00 AM to 10:00 AM daily. It is closed on Sundays. Located at coordinates (35.0388485, 9.4902576), the restaurant's main category is "Restaurant" and it offers various dining options to customers in the area.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2305,14 +2996,57 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Cafe El Amir located at 2FQR+VP8 Cafe El Amir. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>Cafe El Amir is a cafe located in Sidi Bouzid, Tunisia. The cafe is rated 5.0 stars on Google and has received 4 reviews. The cafe's main category is Cafe and its coordinates are (35.0388485, 9.4902576). The cafe's featured image is https://lh5.googleusercontent.com/p/AF1QipMKqsS4-oRJZ1v_SOPCHLgHCgRxSxOE3WT3iOYf=w408-h725-k-no.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Which top-rated destination in Sidi Bouzid offers a delightful selection of Cafe and has a location accessible via GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Visit the intriguing technology museum, Societe de Mohamed, for a glimpse into the local industry's history.
+Mid-Morning: Indulge in a delicious breakfast at 2B Coffee, savoring their aromatic coffee and delightful pastries.
+Midday: Explore the Sidi Bouzid Abbey, a popular tourist destination offering religious and historical attractions.
+Afternoon: Immerse yourself in the vibrant culture at the Musée de Sidi Bouzid, showcasing the region's rich heritage.
+Evening: Head to recipe-fish-seafood for a tantalizing seafood dinner, renowned for its 24-hour service.
+Night: Relax and unwind with a serene walk amidst the serene surroundings of [Park Name], soaking in the city's ambiance.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+2B Coffee is a cafe located in Sidi Bouzid, Tunisia. It has a rating of 4.4 stars based on 17 reviews. The cafe is open daily and offers a variety of coffee drinks, as well as pastries and other snacks. 2B Coffee is located at 2FGG+3J, Sidi Bouzid, Tunisia.
+The Gold is a well-rated tea salon in Sidi Bouzid, Tunisia, that offers a cozy and relaxing atmosphere with a 4.3-star rating based on 3 reviews. It is located at coordinates (35.034902, 9.4619265) on Bd Mohamed Bouazizi.
+**mT`m lmr `byd - Restaurant Abid** is a restaurant located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid (35.0388485, 9.4902576). Its rating is 5/5 with 1 review. No other information is available at this day.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2414,12 +3148,57 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great cafe, check out TO BI GLACE CHEZ AHMED located at Cite wouroud 1 en face de hamadi abid, Sidi Bouzid 9117. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a perfect rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 42.9222201, 27.6056552. For more details, visit their website at https://www.google.com/maps/place/TO+BI+GLACE+CHEZ+AHMED/data=!4m7!3m6!1s0x12fec372915a2ab5:0xf89ef69e4585f023!8m2!3d35.0334888!4d9.4706921!16s%2Fg%2F11ghppwhl4!19sChIJtSpakXLD_hIRI_CFRZ72nvg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 240 916.</t>
+          <t>TO BI GLACE CHEZ AHMED is a cafe located in Sidi Bouzid, Tunisia. It offers a variety of food and drinks, and has a rating of 5.0 out of 5 on Google Maps. The cafe is open 24 hours a day, 7 days a week. It is located at the following address: Cite wouroud 1 en face de hamadi abid, Sidi Bouzid 9117. The cafe's phone number is 52 240 916.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find an exceptional 5.0-rated cafe with a wide selection of categories?</t>
+          <t>Day Plan:
+Morning: Exploring the historical Sidi Bouzid Abbey
+Mid-Morning: Enjoying coffee and pastries at Big 4 Coffee Lounge
+Midday: Trying local seafood cuisine at recipe-fish-seafood
+Afternoon: Visiting Societe de Mohamed technology museum
+Evening: Shopping for souvenirs at Ave Mohamed V and having dinner at top-rated pizzeria Pizzeria Maboub
+Night: Relaxing at BEN jaloul, which is a highly-rated café</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+BEN jaloul is a 5-star rated cafe located in Sidi Bouzid, Tunisia. It is open from 7:00 AM to 11:30 PM and offers a variety of food and drinks. The cafe is located at the following coordinates: 35.0421933, 9.4950972.
+**Big 4 Coffee Lounge**: A cozy coffee lounge located in the heart of Sidi Bouzid, Tunisia. Situated at coordinates (35.034902, 9.4619265), it offers a relaxing ambiance and a delightful menu of coffee, tea, and snacks.
+**mT`m lmr `byd - Restaurant Abid** is a restaurant located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid (35.0388485, 9.4902576). Its rating is 5/5 with 1 review. No other information is available at this day.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2521,12 +3300,57 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a great cafe, check out Cafe Volcano located at 2FQ9+CJ7 Rue union maghrebin. This top-rated destination is perfect for cafe lovers and offers a range of cafe delights to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on []. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, visit their website or call them at [].</t>
+          <t>Cafe Volcano, located in Sidi Bouzid, is an exceptional cafe with a 4.7-star rating. It is a popular spot for locals and tourists alike. The cafe offers a wide variety of coffee, tea, and other beverages. It is also a great place to relax and enjoy the vibrant atmosphere of Sidi Bouzid. The cafe is open from 6:00 AM to 11:00 PM seven days a week.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find a highly-rated cafe with a wide selection of cafe delights, open during convenient hours?</t>
+          <t>Day Plan:
+Morning: Exploring Sidi Bouzid, starting with ISIE Sidi Bouzid for administrative needs, and visit Sidi Bouzid for its religious and historical significance.
+Mid-Morning: Taking a guided tour of Societe de Mohamed to learn about the local technology industry.
+Midday: Trying local cuisine at **MIX FOOD**, known for its delicious Mexican dishes.
+Afternoon: Exploring the Kinesiology practice at Sidi Bouzid for a relaxing and rejuvenating experience.
+Evening: Enjoying a scenic view at Casablanca while sipping on tea and tasting pastries.
+Night: Trying local cuisine at Cafe La Phalene, known for its cozy atmosphere and delicious coffee.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Phalene is a highly-rated cafe located in the heart of Sidi Bouzid, Tunisia. It is known for its cozy atmosphere and delicious coffee and pastries. The cafe is open from 8am to midnight, seven days a week, making it a great place to relax and enjoy a cup of coffee at any time of day or night.
+Casablanca is a 4.6-rated tea room located in Sidi Bouzid, Tunisia. It is open from 7am to midnight every day, and serves a variety of teas and pastries. Casablanca also has a featured image, reviews, and a link to its website.
+El Pescador Restaurant, located in Sidi Bouzid, is a highly-rated restaurant with a 4.5-star rating based on 12 reviews. Despite not providing a description, it is evident that El Pescador Restaurant is a popular spot with a strong reputation. It is situated at 2FMC+446 El Pescador Restaurant, Bd Mohamed Bouazizi, Sidi Bouzid, with coordinates (35.0388485, 9.4902576). The restaurant's precise menu offerings and other details remain unknown due to the lack of information provided.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2632,15 +3456,63 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a great cup of coffee, check out The cup located at 2FMC+HR6 The cup. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.0388485, 9.4902576. 
-For more details, visit their website at  or call them at 90 747 000.</t>
+          <t>Located at coordinates (35.0388485, 9.4902576) in Sidi Bouzid, "The cup" is a highly rated cafe with a 5.0 rating based on 3 reviews. The cafe offers a 24-hour service and is known for its cozy atmosphere and delicious offerings.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find a highly rated, 24-hour coffee destination with a wide selection of cafe options?</t>
+          <t>Day Plan:
+Morning:
+- Exploring the historical and religious significance of Sidi Bouzid Abbey
+Mid-Morning:
+- Trying local cuisine at the highly-rated **MIX FOOD** for an authentic Mexican experience
+Midday:
+- Experiencing cultural immersion at the Societe de Mohamed technology museum to gain insight into the local industry.
+Afternoon:
+- Enjoying the scenic views at ROXY pizzeria while savoring a delicious pizza with a 4.0-star rating
+Evening:
+- Relaxing at the beach or park
+Night:
+- Participating in a traditional cultural event or activity to embrace the local customs and traditions</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Mimo's is a cafe located in Sidi Bouzid, Tunisia. It is rated 4.5 out of 5 stars on Google Maps, and offers a variety of coffee, tea, and snacks. The cafe is open from 8am to 10pm, and is located at 2FMF+258, Sidi Bouzid.
+**Big 4 Coffee Lounge**: A cozy coffee lounge located in the heart of Sidi Bouzid, Tunisia. Situated at coordinates (35.034902, 9.4619265), it offers a relaxing ambiance and a delightful menu of coffee, tea, and snacks.
+**mT`m lmr `byd - Restaurant Abid** is a restaurant located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid (35.0388485, 9.4902576). Its rating is 5/5 with 1 review. No other information is available at this day.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2742,12 +3614,57 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a Cafe, check out Sidi Bouzid located at 2FPM+5H8 Sidi Bouzid. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on dimanche. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>Sidi Bouzid is a cafe located in sidi bouzid, Tunisia. It offers a great atmosphere and a variety of drinks and snacks. The cafe is open 24 hours a day, but is closed on Sundays. The average rating for this cafe is 5.0 stars.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated Cafe in Sidi Bouzid, located at specific coordinates and offering a wide selection of Cafe options?</t>
+          <t>Day Plan:
+Morning: Explore the scenic views at Sidi Bouzid (35.0388485, 9.4902576)
+Mid-Morning: Visit the ISIE Sidi Bouzid for administrative assistance and learn about local governance
+Midday: Try local cuisine at Foodies Pizzeria, known for its delicious pizzas and friendly service
+Afternoon: Relax with a traditional Hammam experience at a local spa or hotel
+Evening: Enjoy a delightful dinner at MIX FOOD, a highly-rated Mexican restaurant known for its authentic flavors
+Night: Experience cultural immersion at Sidi Bouzid Abbey, a popular tourist destination with historical and religious significance</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El Amir is a cafe located in Sidi Bouzid, Tunisia. The cafe is rated 5.0 stars on Google and has received 4 reviews. The cafe's main category is Cafe and its coordinates are (35.0388485, 9.4902576). The cafe's featured image is https://lh5.googleusercontent.com/p/AF1QipMKqsS4-oRJZ1v_SOPCHLgHCgRxSxOE3WT3iOYf=w408-h725-k-no.
+**Big 4 Coffee Lounge**: A cozy coffee lounge located in the heart of Sidi Bouzid, Tunisia. Situated at coordinates (35.034902, 9.4619265), it offers a relaxing ambiance and a delightful menu of coffee, tea, and snacks.
+Pizza_Maestro is a 4.0 star rated restaurant located in Sidi Bouzid, Tunisia. It has 8 reviews and is open from 8:00 AM to 11:00 PM.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2853,12 +3770,57 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and in search of a great Cafe experience, look no further than YAHYAOUI COFFEE. Located at 2FQM+2W7 YAHYAOUI COFFEE, Bd Mohamed Bouazizi, Sidi Bouzid, this top-rated spot is open 24 hours a day, so you can satisfy your caffeine cravings whenever you like. With a perfect rating of 5.0, it's a must-visit destination for Cafe enthusiasts. For more information, visit their website or give them a call at 97 965 645.</t>
+          <t>YAHYAOUI COFFEE is a cafe located in Sidi Bouzid, Tunisia. It offers 24 hour service and is highly rated by customers. It is located at 2FQM+2W7 YAHYAOUI COFFEE, Bd Mohamed Bouazizi, with coordinates (35.0388485, 9.4902576).</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find a top-rated cafe that's open 24 hours and has a perfect 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore Sidi Bouzid, the capital city of the Sidi Bouzid Governorate in Tunisia. Visit historical landmarks such as the Sidi Bouzid Abbey and learn about the city's rich history and culture.
+Mid-Morning: Indulge in local cuisine at MIX FOOD, a highly-rated Mexican restaurant known for its delicious dishes and friendly service.
+Midday: Take a guided tour of ISIE Sidi Bouzid, an administrative establishment that plays a crucial role in the governance of the region. Learn about its functions and significance.
+Afternoon: Engage in outdoor activities at a scenic spot like ROXY Pizzeria. Enjoy a leisurely walk or bike ride while taking in the breathtaking views.
+Evening: Experience cultural immersion at the Societe de Mohamed, a technology museum that showcases the local industry's history and development. Discover the region's technological advancements and innovations.
+Night: Relax with a traditional hammam experience at a local spa or hotel. Immerse yourself in the soothing atmosphere and rejuvenate your body and mind before a restful night's sleep.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Ezzahra cafe is a cafe located in Sidi Bouzid, Tunisia. It's a 24/7 cafe with 4/5 stars reviews on Google and is located in the following coordinates: 35.0388485, 9.4902576.
+The Gold is a well-rated tea salon in Sidi Bouzid, Tunisia, that offers a cozy and relaxing atmosphere with a 4.3-star rating based on 3 reviews. It is located at coordinates (35.034902, 9.4619265) on Bd Mohamed Bouazizi.
+El Pescador Restaurant is a restaurant located in Sidi Bouzid, Tunisia (35.0388485, 9.4902576). It has a 4.5 rating on Google based on 12 reviews. It is open every day from 11:00 to 22:30, except on Saturdays and Sundays, and offers a wide range of dining options.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2964,12 +3926,57 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated Cafe, you must visit Ezzahra cafe. This spot is a great place to enjoy your favourite categories with a rating of 4.0. It's open 24/7 and located at Ezzahra cafe, Sidi Bouzid. For more details, visit their website at https://www.google.com/maps/place/Ezzahra+caf%C3%A9/data=!4m7!3m6!1s0x12fec34acc3beefb:0x5c651b8ae56e2701!8m2!3d35.031033!4d9.4711356!16s%2Fg%2F11tggrcv36!19sChIJ--47zErD_hIRASdu5YobZVw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 543 906.</t>
+          <t>Ezzahra cafe is a cafe located in Sidi Bouzid, Tunisia. It's a 24/7 cafe with 4/5 stars reviews on Google and is located in the following coordinates: 35.0388485, 9.4902576.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find a highly-rated cafe with an impressive rating of 4.0 that operates around the clock?</t>
+          <t>Day Plan:
+Morning: Explore the historical abbey of Sidi Bouzid, known for its religious and historical significance.
+Mid-Morning: Visit the nearby Societe de Mohamed, a technology museum showcasing the history and development of technology in the region.
+Midday: Try the delicious pizzas at Foodies, a popular pizzeria in Sidi Bouzid, known for its friendly service and great ambiance.
+Afternoon: Visit the Bouzid mechanic shop for any necessary vehicle maintenance or repairs.
+Evening: Take a guided tour of the Sidi Bouzid Kinesiology practice to learn about their services and holistic approach to health and well-being.
+Night: Enjoy a relaxing evening with a cup of tea at Casablanca, a cozy tea room with a cozy ambiance and high ratings.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+BEN jaloul is a 5-star rated cafe located in Sidi Bouzid, Tunisia. It is open from 7:00 AM to 11:30 PM and offers a variety of food and drinks. The cafe is located at the following coordinates: 35.0421933, 9.4950972.
+Casablanca is a tea room located in Sidi Bouzid, Tunisia, at the coordinates (35.0388485, 9.4902576). It is highly rated, with 4.6 stars based on 10 reviews. Casablanca is open daily from 7:00 AM to midnight and offers a cozy ambiance for enjoying a cup of tea.
+Resaurant ALI BABA is a restaurant located in Sidi Bouzid, Tunisia. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is located at the coordinates (35.0388485, 9.4902576).
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3071,12 +4078,63 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a cozy spot to grab a drink, head to COSTA CAFE located at 2FH3+393, Sidi Bouzid. This cafe offers a warm and inviting atmosphere, perfect for coffee enthusiasts. With a rating of 4.3, it's a must-visit spot for anyone who loves a good cup of coffee. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 27 123 845.</t>
+          <t>COSTA CAFE is a cafe located at(35.0388485, 9.4902576) in sidi bouzid. It has a rating of 4.3 based on 3 reviews and offers various amenities such as a featured image, website, phone number, address, and categories like Cafe.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cozy cafe with a warm atmosphere and great coffee in Sidi Bouzid?</t>
+          <t>Day Plan:
+Morning:
+- Explore Sidi Bouzid's historical side by visiting the Sidi Bouzid Abbey, a popular tourist destination offering religious and historical attractions.
+Mid-Morning:
+- Indulge in the local cuisine at L'yasmina, a renowned restaurant offering delectable culinary delights. It boasts a remarkable rating of 4.8, ensuring a memorable dining experience.
+Midday:
+- Take a leisurely walk through the serene Societe de Mohamed Technology Museum, showcasing the region's rich technological history and development.
+Afternoon:
+- Engage in some outdoor recreation at ROXY Pizzeria, a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a variety of pizzas and a vibrant atmosphere.
+Evening:
+- Experience the vibrant atmosphere of MIX FOOD, a highly-rated Mexican restaurant. Savor authentic Mexican dishes and enjoy the lively ambiance.
+Night:
+- Relax and unwind at Taxi station, a 5-star rated taxi station. Take a break from the day's activities and enjoy the tranquil surroundings.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sidi Bouzid is a cafe located in sidi bouzid, Tunisia. It offers a great atmosphere and a variety of drinks and snacks. The cafe is open 24 hours a day, but is closed on Sundays. The average rating for this cafe is 5.0 stars.
+Located in Sidi Bouzid, The Lodge is a tea room that offers a delightful breakfast. It's located at the coordinates (35.034902, 9.4619265). With a 4.6 rating based on 19 reviews, The Lodge is highly recommended for its cozy ambiance and delicious offerings.
+L'yasmina, a renowned restaurant situated at 2FQQ+QMF L'yasmina, rue ibn mandhour, Sidi Bouzid, offers delectable culinary delights. Boasting a remarkable rating of 4.8, it is renowned for its exceptional cuisine. With a convenient opening time of 8 AM to 9 PM, excluding Sundays, it provides a welcoming atmosphere for diners.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3174,14 +4232,64 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a relaxing experience, check out The Gold located at 2FMC+33M The Gold, Bd Mohamed Bouazizi. 
-This top-rated destination is perfect for tea lovers and offers a variety of tea options to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, visit their website at https://www.google.com/maps/place/The+Gold/data=!4m7!3m6!1s0x12fec32e782b12c3:0x30f765b3554b53f2!8m2!3d35.0327143!4d9.4701629!16s%2Fg%2F11t9wtzw68!19sChIJwxIreC7D_hIR8lNLVbNl9zA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at.</t>
+          <t>The Gold is a tea room located in Sidi Bouzid. It has a rating of 4.3 out of 5 stars based on 3 reviews. The featured image shows a cozy and inviting atmosphere.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination in Sidi Bouzid that's perfect for tea lovers and offers a relaxing experience?</t>
+          <t>Day Plan:
+Morning: Exploring the historical Sidi Bouzid Abbey, renowned for its religious and historical significance.
+Mid-Morning: Trying local cuisine at MIX FOOD, a highly-rated Mexican restaurant known for its authentic flavors.
+Midday: Visiting ISIE Sidi Bouzid, an administrative establishment offering insights into local governance and history.
+Afternoon: Enjoying scenic views at ROXY Pizzeria, a rooftop spot with a 4.0-star rating, offering panoramic views of the city.
+Evening: Experiencing cultural immersion at Societe de Mohamed, a technology museum that showcases the local industry's history and advancements.
+Night: Relaxing with a traditional Hammam experience at Sidi Bouzid, a highly-rated kinesitherapy center known for its rejuvenating treatments.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe BROOKLYN is a highly-rated cafe located in Sidi Bouzid, Tunisia. It offers a variety of services, including:
+- Coffee and tea
+- Breakfast and lunch
+- Pastries and desserts
+- WiFi and comfortable seating
+The cafe is open from 6am to 10pm, and is closed on Sundays. It is located at the following address:
+2FPJ+66W Cafe BROOKLYN, Sidi Bouzid
+Cafe BROOKLYN is a great place to relax and enjoy a cup of coffee or tea. The staff is friendly and the atmosphere is relaxed.
+Casablanca is a 4.6-rated tea room located in Sidi Bouzid, Tunisia. It is open from 7am to midnight every day, and serves a variety of teas and pastries. Casablanca also has a featured image, reviews, and a link to its website.
+**Break Time Fast Food** in Sidi Bouzid is a highly-rated restaurant (5.0 stars from 1 review) that opens from 7:00 AM to 10:00 AM daily. It is closed on Sundays. Located at coordinates (35.0388485, 9.4902576), the restaurant's main category is "Restaurant" and it offers various dining options to customers in the area.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3287,13 +4395,57 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated Cafe spot, check out Cafe Restaurant BALANCE located at Cafe Restaurant BALANCE, 9100. 
-This highly-rated destination is a must-visit spot for Cafe lovers. It's open during these hours: 08:00-20:00, but closed on [none provided]. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, visit their website at [none provided] or call them at 99 417 607.</t>
+          <t>Cafe Restaurant BALANCE is a cafe located in Sidi Bouzid, Tunisia. It has a rating of 4.5 stars based on 2 reviews. It is open from 8:00 AM to 8:00 PM and offers a variety of cafe fare. The cafe is located at the coordinates (35.034902, 9.4619265).</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe spot in Sidi Bouzid with exceptional GPS coordinates and operating hours?</t>
+          <t>Day Plan:
+Morning: Visit the ISIE Sidi Bouzid for a glimpse into the region's governance and administrative functions.
+Mid-Morning: Explore the Sidi Bouzid Abbey, a popular tourist destination showcasing religious and historical significance.
+Midday: Indulge in delicious pizza at the highly-rated Pizzeria Maboub, known for its authentic Italian flavors.
+Afternoon: Head to Big 4 Coffee Lounge for a relaxing break, savoring a delightful cup of coffee or tea while soaking in the cozy ambiance.
+Evening: Experience the vibrant ambiance and local cuisine at MIX FOOD, a renowned Mexican restaurant offering a taste of Mexico's culinary delights.
+Night: Unwind at Societe de Mohamed, a unique technology museum providing insights into the region's industrial and technological advancements.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La piazza is a cafe located in Sidi Bouzid, offering a cozy ambiance and a range of menu items. It's open from 07:30-22:30 during the week and closed on Sundays. It has received positive reviews from customers, with some mentioning a great experience.
+**Big 4 Coffee Lounge**: A cozy coffee lounge located in the heart of Sidi Bouzid, Tunisia. Situated at coordinates (35.034902, 9.4619265), it offers a relaxing ambiance and a delightful menu of coffee, tea, and snacks.
+Fast Food is a restaurant located in 2FQV+G4G Fast food, C83, Sidi Bouzid. Its main category is Restaurant and its rating is 4.0. The restaurant is not in the city center.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3403,15 +4555,57 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>The Loft Lounge can be found at 2FMF+8P4 The Loft Lounge, `mr@ lbrqwqy, Sidi Bouzid 9100. 
-It's a top-rated cafe with a rating of 4.0, perfect for cafe enthusiasts. 
-The Loft Lounge is open 24/7 and can be reached at 93 386 338 for any inquiries. 
-For more details, visit their Facebook page at https://www.facebook.com/profile.php%3Fid%3D61553937093550.</t>
+          <t>The Loft Lounge is a 4-star rated Cafe situated in Sidi Bouzid, Tunisia (coordinates 35.034902, 9.4619265). It provides 24h/24 service, and it's possible to contact it at the phone number 93 386 338.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe that operates round-the-clock, located at 2FMF+8P4 The Loft Lounge and has a top-rated rating of 4.0, making it a perfect destination for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the historic abbey of Sidi Bouzid, admiring its architectural beauty and religious significance.
+Mid-Morning: Visiting the Kinesiology practice for a rejuvenating session or consultation.
+Midday: Trying local cuisine at Pizzeria Maboub, savoring the delicious pizza options and experiencing the warm hospitality.
+Afternoon: Shopping at MIX FOOD for souvenirs and local products, enjoying the vibrant atmosphere and supporting the local economy.
+Evening: Relaxing with a scenic stroll through the picturesque streets of Sidi Bouzid, soaking in the charming ambiance and capturing the local flavors.
+Night: Participating in a guided tour of ISIE Sidi Bouzid, gaining insights into the administrative functions and connecting with the local community.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+BEN jaloul is a 5-star rated cafe located in Sidi Bouzid, Tunisia. It is open from 7:00 AM to 11:30 PM and offers a variety of food and drinks. The cafe is located at the following coordinates: 35.0421933, 9.4950972.
+Casablanca is a tea room located in Sidi Bouzid, Tunisia, at the coordinates (35.0388485, 9.4902576). It is highly rated, with 4.6 stars based on 10 reviews. Casablanca is open daily from 7:00 AM to midnight and offers a cozy ambiance for enjoying a cup of tea.
+**mT`m lmr `byd - Restaurant Abid** is a restaurant located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid (35.0388485, 9.4902576). Its rating is 5/5 with 1 review. No other information is available at this day.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3521,14 +4715,57 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great place to grab a bite, check out BEN jaloul located at Ecole Primaire Cite El Khadhra. 
-This top-rated destination is perfect for Café lovers and serves a range of options to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 35.0421933, 9.4950972. For more details, visit their website at http://www.facebook.com/1141084022578448 or call them at 90 122 451.</t>
+          <t>BEN jaloul is a 5-star rated cafe located in Sidi Bouzid, Tunisia. It is open from 7:00 AM to 11:30 PM and offers a variety of food and drinks. The cafe is located at the following coordinates: 35.0421933, 9.4950972.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find a highly-rated café named BEN jaloul that serves a wide variety of options?</t>
+          <t>Day Plan:
+Morning: Explore the historic Sidi Bouzid Abbey, appreciating its religious and historical significance.
+Mid-Morning: Visit the Societe de Mohamed Technology Museum, delving into the region's technological advancements.
+Midday: Indulge in authentic Mexican cuisine at MIX FOOD, savoring its highly-rated dishes and vibrant ambiance.
+Afternoon: Relax and rejuvenate at Sidi Bouzid Kinesitherapy Center, enjoying its 24-hour availability and professional services.
+Evening: Take a leisurely stroll through the Big 4 Coffee Lounge, enjoying its cozy ambiance and delightful beverages.
+Night: Experience the lively atmosphere at ROXY Pizzeria, savoring its extensive pizza menu and earning a taste of the local nightlife.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Selfie Coffee Shop, located in Sidi Bouzid (35.0388485, 9.4902576), is an establishment that stays open 24/7. It offers a variety of amenities to its customers, including Wi-Fi and outdoor seating. Customers enjoy the cozy ambiance of the coffee shop and the friendly service.
+**Big 4 Coffee Lounge**: A cozy coffee lounge located in the heart of Sidi Bouzid, Tunisia. Situated at coordinates (35.034902, 9.4619265), it offers a relaxing ambiance and a delightful menu of coffee, tea, and snacks.
+Restaurant Alkhayma Sidi Bouzid is a 5-star restaurant located in Sidi Bouzid, Tunisia. It offers a variety of dishes, and is open from 8am to 9pm. The restaurant is located at Bd Mohamed Bouazizi, and can be contacted at 90 363 142.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3630,12 +4867,57 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid, be sure to visit BIG SMARI JUICE located at 2FMF+8F2 BIG SMARI JUICE, Sidi Bouzid. This top-rated Cafe is perfect for Cafe lovers and offers a variety of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-19:00. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>BIG SMARI JUICE is a 5-star rated cafe located in Sidi Bouzid at coordinates (35.0388485, 9.4902576). Open from 7:00 AM to 7:00 PM, it features a variety of cafe offerings.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe offering diverse categories in Sidi Bouzid with the GPS coordinates 35.0388485 and 9.4902576?</t>
+          <t>Day Plan:
+Morning: Explore Sidi Bouzid Abbey, a popular tourist destination with religious and historical attractions.
+Mid-Morning: Try local cuisine at **MIX FOOD**, a highly-rated Mexican restaurant known for its delicious dishes and friendly service.
+Midday: Visit the Societe de Mohamed, a technology museum that offers insights into the local industry's history and development.
+Afternoon: Take a guided tour of the ISIE Sidi Bouzid, a government building that provides administrative services to the region.
+Evening: Enjoy scenic views at Sidi Bouzid Kinesiology, a practice that offers a variety of services and is open 24/7.
+Night: Experience cultural immersion at The Lodge tea room, a cozy spot with a highly recommended breakfast and ambiance.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El woroud is a highly-rated cafe in Sidi Bouzid, Tunisia, boasting a 4.8-star rating from 20 reviews. Situated at coordinates (35.034902, 9.4619265), it is open daily from 6 AM to midnight. While the cafe's description is currently unavailable, it offers a cozy ambiance for customers to enjoy its coffee and cafe menu.
+Located in Sidi Bouzid, The Lodge is a tea room that offers a delightful breakfast. It's located at the coordinates (35.034902, 9.4619265). With a 4.6 rating based on 19 reviews, The Lodge is highly recommended for its cozy ambiance and delicious offerings.
+Resaurant ALI BABA is a restaurant located in Sidi Bouzid, Tunisia. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is located at the coordinates (35.0388485, 9.4902576).
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3733,14 +5015,57 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a charming Cafe, check out Kimo cafe located at 2FM9+CWH Kimo cafe, C125, Sidi Bouzid. 
-This top-rated destination offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Kimo+cafe/data=!4m7!3m6!1s0x12fec3172797e5e5:0x261bb615a545a3bb!8m2!3d35.0335634!4d9.4698444!16s%2Fg%2F11hds3yz4z!19sChIJ5eWXJxfD_hIRu6NFpRW2GyY?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Kimo cafe** is a cozy cafe located in Sidi Bouzid, Tunisia. It offers a warm and inviting atmosphere, perfect for relaxing and enjoying a cup of coffee or tea. The cafe also serves a variety of pastries and snacks, making it the perfect place to grab a bite to eat. Kimo cafe is conveniently located in the heart of Sidi Bouzid, making it easy to access. With its friendly staff and great coffee, Kimo cafe is the perfect place to relax and enjoy a moment of peace.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can you visit a highly-rated charming Cafe offering a variety of Cafe, conveniently located in Sidi Bouzid?</t>
+          <t>Day Plan:
+Morning: Explore the ISIE Sidi Bouzid, a government building that offers administrative services to the region.
+Mid-Morning: Visit Sidi Bouzid, a highly-rated kinesitherapy center that offers 24-hour service and specializes in physical rehabilitation.
+Midday: Try local cuisine at MIX FOOD, a highly-rated Mexican restaurant known for its delicious dishes and friendly service.
+Afternoon: Engage in outdoor activities like hiking or birdwatching at Sidi Bouzid, a popular tourist destination that offers religious and historical attractions.
+Evening: Take a guided tour of the Societe de Mohamed, a technology museum that offers a unique insight into the history and development of technology.
+Night: Relax with a traditional Moroccan hammam experience at a local spa or hotel to unwind and rejuvenate after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Restaurant BALANCE is a cafe located in Sidi Bouzid, Tunisia. It has a rating of 4.5 stars based on 2 reviews. It is open from 8:00 AM to 8:00 PM and offers a variety of cafe fare. The cafe is located at the coordinates (35.034902, 9.4619265).
+**Big 4 Coffee Lounge**: A cozy coffee lounge located in the heart of Sidi Bouzid, Tunisia. Situated at coordinates (35.034902, 9.4619265), it offers a relaxing ambiance and a delightful menu of coffee, tea, and snacks.
+**mT`m lmr `byd - Restaurant Abid** is a restaurant located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid (35.0388485, 9.4902576). Its rating is 5/5 with 1 review. No other information is available at this day.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3846,12 +5171,58 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Cafe Charlotte located at Bd Mohamed Bouazizi, Sidi Bouzid. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-22:00. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 29 147 012.</t>
+          <t>Cafe Charlotte is a cafe located in Sidi Bouzid, Tunisia. It is located on the Bd Mohamed Bouazizi. The cafe offers a variety of coffee and tea drinks, as well as pastries and other light snacks. It is open from 7am to 10pm, and is closed on Sundays.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Nestled in the heart of sidi bouzid, what top-rated destination is a haven for Cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the historical Sidi Bouzid Abbey, known for its religious and historical significance.
+Mid-Morning: Trying local cuisine at RESTAURANT LA MAMMA, offering a variety of dishes and a cozy ambiance.
+Midday: Visiting The Lodge, a highly recommended tea room with a 4.6 rating, known for its delightful breakfast.
+Afternoon: Enjoying scenic views at Sidi Bouzid, capturing the beauty of the surrounding landscape.
+Evening: Participating in a guided tour of ISIE Sidi Bouzid, an administrative establishment with historical significance.
+Night: Relaxing with traditional kinesitherapy at Sidi Bouzid, a highly rated center specializing in physical therapy.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sidi Bouzid is a cafe located in sidi bouzid, Tunisia. It offers a great atmosphere and a variety of drinks and snacks. The cafe is open 24 hours a day, but is closed on Sundays. The average rating for this cafe is 5.0 stars.
+Located in Sidi Bouzid, The Lodge is a tea room that offers a delightful breakfast. It's located at the coordinates (35.034902, 9.4619265). With a 4.6 rating based on 19 reviews, The Lodge is highly recommended for its cozy ambiance and delicious offerings.
+The RESTAURANT LA MAMMA is located in Sidi Bouzid, Tunisia, at the following coordinates: (35.031703412371, 9.465656233972). 
+This restaurant offers a variety of dishes and has received a 4.4-star rating. It is open from 00:00-23:00, but closed on Sundays. You can reach the restaurant by phone at 98 235 744.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3957,13 +5328,63 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great Cafe, check out Cafe Belvue located at 2FPW+8F7 Cafe Belvue, Rue Denmark, Sidi Bouzid 9100. 
-This top-rated destination is perfect for Cafe lovers and has a rating of 5.0, making it a must-visit spot. It's open 24 hours a day, so you can stop by anytime. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, visit their website or call them at 53 243 653.</t>
+          <t>Discover Cafe Belvue, a cozy cafe located in the heart of Sidi Bouzid. Known for its welcoming atmosphere, Cafe Belvue offers a wide selection of coffee, tea, and pastries to savor. Situated at coordinates (35.034902, 9.4619265), it's the perfect spot to relax, socialize, and enjoy a delightful break.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find the highly-rated Cafe Belvue, known for its exceptional Cafe experience and convenient 24-hour availability?</t>
+          <t>Day Plan:
+**Morning:**
+* Exploring the historic Sidi Bouzid Abbey for its religious and architectural significance.
+**Mid-Morning:**
+* Trying local cuisine at RESTAURANT LA MAMMA for an authentic Tunisian dining experience.
+**Midday:**
+* Visiting the technology museum Societe de Mohamed to learn about the region's technological history.
+**Afternoon:**
+* Enjoying a delicious pizza at the top-rated Pizzeria Maboub.
+**Evening:**
+* Engaging in cultural immersion at the cultural site ISIE Sidi Bouzid, which offers insights into the region's administrative and civic life.
+**Night:**
+* Experiencing the vibrant local scene at **MIX FOOD**, a highly-rated Mexican restaurant in Sidi Bouzid.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sidi Bouzid, a cafe located in Sidi Bouzid (35.0388485, 9.4902576), is open 24 hours a day except on Sundays. It has received 3 reviews and has a 5.0 rating, indicating high customer satisfaction.
+Casablanca is a tea room located in Sidi Bouzid, Tunisia, at the coordinates (35.0388485, 9.4902576). It is highly rated, with 4.6 stars based on 10 reviews. Casablanca is open daily from 7:00 AM to midnight and offers a cozy ambiance for enjoying a cup of tea.
+RESTAURANT LA MAMMA is a restaurant located in Sidi Bouzid (Tunisia) at the coordinates (35.031703412371, 9.465656233972). It has a rating of 4.4 out of 5 based on 9 reviews and is open from 00:00 to 23:00 every day except Sunday. The restaurant's main category is Restaurant.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4069,12 +5490,57 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated Cafe, check out Cafe Margoum located at 2FPR+WC9 Cafe Margoum, Unnamed Road, Sidi Bouzid. This destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, but closed on unspecified days. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, call them at 95 484 870.</t>
+          <t>**Cafe Margoum** is a cafe located in Sidi Bouzid, Tunisia. It's open 24/7 and has a rating of 5.0 stars. The cafe's main category is Cafe. Cafe Margoum is located at the coordinates (35.0388485, 9.4902576).</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find a highly-rated Cafe with a 5.0 rating and a variety of Cafe options, open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore the historic Sidi Bouzid abbey, a popular tourist destination known for its religious and historical significance.
+Mid-Morning: Visit the Societe de Mohamed technology museum to gain insights into the region's industrial heritage and technological advancements.
+Midday: Try the delicious seafood cuisine at recipe-fish-seafood, a highly-rated restaurant specializing in this culinary delight.
+Afternoon: Relax with a rejuvenating spa experience at a local spa or hotel, offering a range of treatments to soothe your mind and body.
+Evening: Enjoy a delightful Mexican meal at **MIX FOOD**, a highly-rated restaurant known for its authentic and flavorful dishes.
+Night: Head to Casablanca, a cozy tea room with a warm ambiance, to unwind and sip on traditional Tunisian tea while soaking in the local atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Phalene is a highly-rated cafe located in the heart of Sidi Bouzid, Tunisia. It is known for its cozy atmosphere and delicious coffee and pastries. The cafe is open from 8am to midnight, seven days a week, making it a great place to relax and enjoy a cup of coffee at any time of day or night.
+Casablanca is a tea room located in Sidi Bouzid, Tunisia, at the coordinates (35.0388485, 9.4902576). It is highly rated, with 4.6 stars based on 10 reviews. Casablanca is open daily from 7:00 AM to midnight and offers a cozy ambiance for enjoying a cup of tea.
+Pizza_Maestro is a 4.0 star rated restaurant located in Sidi Bouzid, Tunisia. It has 8 reviews and is open from 8:00 AM to 11:00 PM.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4176,12 +5642,57 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a great spot to enjoy a cup of coffee, make sure to visit Vivarium Cafe. This top-rated cafe, located at 5 rue Palestine, is a great option for cafe lovers. With a rating of 4.0, it's a must-visit spot. The cafe is open 24 hours a day, so you can visit any time convenient for you. For more details, visit their website or call them at the provided phone number.</t>
+          <t>The vivarium cafe is located in Sidi Bouzid, Tunisia, at the coordinates (35.038021317603, 9.494247474676). It is a cafe that offers a variety of food and drinks, and is open 24 hours a day. The cafe has a 4.0 rating on Google Maps, and has received one review.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe in Sidi Bouzid that is renowned for its extended opening hours, allowing for convenient coffee breaks any time of the day?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring the ruins of Sidi Bouzid Abbey, where you can immerse yourself in the historical and religious atmosphere.
+Mid-Morning: Sample the authentic flavors of Sidi Bouzid by having breakfast at Cafe El Amir, a highly-rated cafe known for its delicious coffee and friendly service.
+Midday: Visit ISIE Sidi Bouzid, the local administrative establishment, to learn about the city's official side and its administrative structure.
+Afternoon: Take a break from the city bustle and visit the nearby park, where you can enjoy a leisurely picnic lunch while soaking in the fresh air and green surroundings.
+Evening: Indulge in a delightful dinner at **MIX FOOD**, a popular Mexican restaurant in Sidi Bouzid. The restaurant's charming ambiance and authentic Mexican dishes are sure to leave a lasting impression.
+Night: End the evening with a relaxing stroll through the city's streets, taking in the sights and sounds of the vibrant local culture and atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El Amir is a cafe located in Sidi Bouzid, Tunisia. The cafe is rated 5.0 stars on Google and has received 4 reviews. The cafe's main category is Cafe and its coordinates are (35.0388485, 9.4902576). The cafe's featured image is https://lh5.googleusercontent.com/p/AF1QipMKqsS4-oRJZ1v_SOPCHLgHCgRxSxOE3WT3iOYf=w408-h725-k-no.
+The Gold is a well-rated tea salon in Sidi Bouzid, Tunisia, that offers a cozy and relaxing atmosphere with a 4.3-star rating based on 3 reviews. It is located at coordinates (35.034902, 9.4619265) on Bd Mohamed Bouazizi.
+Resaurant ALI BABA is a restaurant located in Sidi Bouzid, Tunisia. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is located at the coordinates (35.0388485, 9.4902576).
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4287,12 +5798,57 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you find yourself in Sidi Bouzid and craving a great meal, RESTAURANT LA MAMMA at 2FMF+GFJ RESTAURANT LA MAMMA, AVENUE HABIB BOURGUIBA is a top spot for Restaurant lovers. With a rating of 4.4 based on 9 reviews, it's a must-visit destination. Open from 00:00-23:00, it's closed on Sundays. To get there, use the GPS coordinates (35.031703412371, 9.465656233972) or call 98 235 744 for more details.</t>
+          <t>RESTAURANT LA MAMMA is a restaurant located in Sidi Bouzid (Tunisia) at the coordinates (35.031703412371, 9.465656233972). It has a rating of 4.4 out of 5 based on 9 reviews and is open from 00:00 to 23:00 every day except Sunday. The restaurant's main category is Restaurant.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant (4.4 out of 5) with excellent reviews in Sidi Bouzid, known for its culinary delights?</t>
+          <t>Day Plan:
+Morning: Explore Sidi Bouzid (Visit Sidi Bouzid abbey for religious and historical insights, then head to ISIE Sidi Bouzid for administrative services.)
+Mid-Morning: Visit the Societe de Mohamed (Technology museum)
+Midday: Try local cuisine at MIX FOOD (Mexican restaurant)
+Afternoon: Enjoy recreational activities at Sidi Bouzid park
+Evening: Relax with a massage at a local spa or hotel
+Night: Experience nightlife at a local bar or club</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Kimo cafe** is a cozy cafe located in Sidi Bouzid, Tunisia. It offers a warm and inviting atmosphere, perfect for relaxing and enjoying a cup of coffee or tea. The cafe also serves a variety of pastries and snacks, making it the perfect place to grab a bite to eat. Kimo cafe is conveniently located in the heart of Sidi Bouzid, making it easy to access. With its friendly staff and great coffee, Kimo cafe is the perfect place to relax and enjoy a moment of peace.
+Casablanca is a tea room located in Sidi Bouzid, Tunisia, at the coordinates (35.0388485, 9.4902576). It is highly rated, with 4.6 stars based on 10 reviews. Casablanca is open daily from 7:00 AM to midnight and offers a cozy ambiance for enjoying a cup of tea.
+El Pescador Restaurant, located in Sidi Bouzid, is a highly-rated restaurant with a 4.5-star rating based on 12 reviews. Despite not providing a description, it is evident that El Pescador Restaurant is a popular spot with a strong reputation. It is situated at 2FMC+446 El Pescador Restaurant, Bd Mohamed Bouazizi, Sidi Bouzid, with coordinates (35.0388485, 9.4902576). The restaurant's precise menu offerings and other details remain unknown due to the lack of information provided.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4398,14 +5954,57 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated Restaurant, check out El Pescador Restaurant located at 2FMC+446 El Pescador Restaurant, Bd Mohamed Bouazizi, Sidi Bouzid. 
-This destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-22:30, but closed on samedi, dimanche. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, call them at 53 059 000.</t>
+          <t>El Pescador Restaurant, located in Sidi Bouzid, is a highly-rated restaurant with a 4.5-star rating based on 12 reviews. Despite not providing a description, it is evident that El Pescador Restaurant is a popular spot with a strong reputation. It is situated at 2FMC+446 El Pescador Restaurant, Bd Mohamed Bouazizi, Sidi Bouzid, with coordinates (35.0388485, 9.4902576). The restaurant's precise menu offerings and other details remain unknown due to the lack of information provided.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Which top-rated Restaurant with a 4.5 rating can be found in sidi bouzid and what makes it a must-visit spot?</t>
+          <t>Day Plan:
+Morning: Explore the historical Sidi Bouzid abbey, which offers fascinating religious and cultural insights.
+Mid-Morning: Visit the Societe de Mohamed, a technology museum showcasing the fascinating history and advancements of the local industry.
+Midday: Relish a delightful lunch at MIX FOOD, a highly-rated Mexican restaurant renowned for its authentic and flavorful dishes.
+Afternoon: Visit the Kinesiology practice at Sidi Bouzid for a rejuvenating and therapeutic session to unwind your mind and body.
+Evening: Immerse yourself in the vibrant atmosphere of Cafe La Phalene, a cozy and inviting cafe perfect for sipping on aromatic coffee and indulging in delectable pastries.
+Night: Experience the authentic flavors of Sidi Bouzid's local cuisine at recipe-fish-seafood, a restaurant specializing in exquisite seafood dishes, ensuring a satisfying and memorable dining experience.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Phalene is a highly-rated cafe located in the heart of Sidi Bouzid, Tunisia. It is known for its cozy atmosphere and delicious coffee and pastries. The cafe is open from 8am to midnight, seven days a week, making it a great place to relax and enjoy a cup of coffee at any time of day or night.
+The Gold is a well-rated tea salon in Sidi Bouzid, Tunisia, that offers a cozy and relaxing atmosphere with a 4.3-star rating based on 3 reviews. It is located at coordinates (35.034902, 9.4619265) on Bd Mohamed Bouazizi.
+**mT`m lmr `byd - Restaurant Abid** is a restaurant located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid (35.0388485, 9.4902576). Its rating is 5/5 with 1 review. No other information is available at this day.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4507,13 +6106,57 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a reliable mechanic, check out Bouzid located at 2FQQ+MGQ. 
-This top-rated destination offers a range of mechanical services and has a rating of 3.8. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, call them at 97 092 200.</t>
+          <t>Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find a highly-rated mechanic offering reliable mechanical services, conveniently located and accessible via GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore Sidi Bouzid (take a guided tour of the abbey and visit the Kinesiology practice for a unique experience)
+Mid-Morning: Try local cuisine at **MIX FOOD** (savor the delicious Mexican dishes and enjoy the cozy ambiance)
+Midday: Visit L'yasmina (indulge in delectable culinary delights and appreciate the exceptional cuisine)
+Afternoon: Shopping at the Souk (explore the lively market and discover local handicrafts and souvenirs)
+Evening: Enjoy scenic views at the Sidi Bouzid beach (watch the sunset and capture the mesmerizing beauty)
+Night: Relax with a traditional spa treatment at The Lodge (unwind and rejuvenate with a soothing massage or body treatment)</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sidi Bouzid, a cafe located in Sidi Bouzid (35.0388485, 9.4902576), is open 24 hours a day except on Sundays. It has received 3 reviews and has a 5.0 rating, indicating high customer satisfaction.
+Located in Sidi Bouzid, The Lodge is a tea room that offers a delightful breakfast. It's located at the coordinates (35.034902, 9.4619265). With a 4.6 rating based on 19 reviews, The Lodge is highly recommended for its cozy ambiance and delicious offerings.
+L'yasmina, a renowned restaurant situated at 2FQQ+QMF L'yasmina, rue ibn mandhour, Sidi Bouzid, offers delectable culinary delights. Boasting a remarkable rating of 4.8, it is renowned for its exceptional cuisine. With a convenient opening time of 8 AM to 9 PM, excluding Sundays, it provides a welcoming atmosphere for diners.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4619,14 +6262,64 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated Kinesitherapeute, check out Sidi bouzid located at 2FQV+RMJ Sidi bouzid, Sidi Bouzid. 
-This destination is perfect for Kinesitherapeute lovers and has a rating of 4.8 out of 5. 
-It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 53 187 197.</t>
+          <t>Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Kinesitherapeute establishment with a 24-hour operation in Sidi Bouzid?</t>
+          <t>Day Plan:
+Morning: Exploring Cafe Brooklyn for coffee and pastries
+Mid-Morning: Trying local cuisine at MIX FOOD, a highly-rated Mexican restaurant
+Midday: Visiting The Lodge for a delightful breakfast
+Afternoon: Enjoying a scenic walk or exploring the Sidi Bouzid abbey
+Evening: Experiencing the cultural immersion at Societe de Mohamed, a technology museum
+Night: Indulging in the delicious pizzas at ROXY Pizzeria</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe BROOKLYN is a highly-rated cafe located in Sidi Bouzid, Tunisia. It offers a variety of services, including:
+- Coffee and tea
+- Breakfast and lunch
+- Pastries and desserts
+- WiFi and comfortable seating
+The cafe is open from 6am to 10pm, and is closed on Sundays. It is located at the following address:
+2FPJ+66W Cafe BROOKLYN, Sidi Bouzid
+Cafe BROOKLYN is a great place to relax and enjoy a cup of coffee or tea. The staff is friendly and the atmosphere is relaxed.
+Located in Sidi Bouzid, The Lodge is a tea room that offers a delightful breakfast. It's located at the coordinates (35.034902, 9.4619265). With a 4.6 rating based on 19 reviews, The Lodge is highly recommended for its cozy ambiance and delicious offerings.
+Resaurant ALI BABA is a restaurant located in Sidi Bouzid, Tunisia. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is located at the coordinates (35.0388485, 9.4902576).
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4728,12 +6421,57 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a top-rated cafe, Sidi Bouzid located at 2FPM+5H8 Sidi Bouzid is a must-visit spot. This popular destination has a rating of 5.0 and is open 24 hours a day, except on Sundays. To get there, use the GPS coordinates (35.0388485, 9.4902576).</t>
+          <t>Sidi Bouzid is a highly-rated cafe located at 2FPM+5H8 in Sidi Bouzid. It is open 24 hours a day and closed on Sundays. Sidi Bouzid offers a welcoming atmosphere and has received positive reviews from its patrons.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find a highly-rated cafe that's open around the clock, except on Sundays?</t>
+          <t>Day Plan:
+Morning: Exploring the abbey of Sidi Bouzid for its religious and historical significance.
+Mid-Morning: Trying local cuisine at MIX FOOD, a highly-rated Mexican restaurant known for its delicious dishes and friendly service.
+Midday: Visiting ISIE Sidi Bouzid, an administrative establishment located in the heart of the city.
+Afternoon: Enjoying scenic views at the scenic spot of Sidi Bouzid, capturing the beauty of the surroundings.
+Evening: Participating in a cultural immersion at the Societe de Mohamed, a technology museum offering insights into the local industry and history.
+Night: Relaxing with a soothing spa treatment at a local spa or hotel, rejuvenating for the next day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+COSTA CAFE is a cafe located at(35.0388485, 9.4902576) in sidi bouzid. It has a rating of 4.3 based on 3 reviews and offers various amenities such as a featured image, website, phone number, address, and categories like Cafe.
+Located in Sidi Bouzid, The Lodge is a tea room that offers a delightful breakfast. It's located at the coordinates (35.034902, 9.4619265). With a 4.6 rating based on 19 reviews, The Lodge is highly recommended for its cozy ambiance and delicious offerings.
+Restaurant Alkhayma Sidi Bouzid is a 5-star restaurant located in Sidi Bouzid, Tunisia. It offers a variety of dishes, and is open from 8am to 9pm. The restaurant is located at Bd Mohamed Bouazizi, and can be contacted at 90 363 142.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4827,12 +6565,57 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated destination, check out ISIE Sidi Bouzid. This Administration spot is perfect for Administration lovers and offers a range of Administration categories to choose from. With a rating of 4.0, it's a must-visit spot located at Bd Mohamed Bouazizi, Sidi Bouzid. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Administration spot with GPS coordinates 35.0388485, 9.4902576, perfect for Administration enthusiasts in Sidi Bouzid?</t>
+          <t>Day Plan:
+Morning: Explore Sidi Bouzid's historical landmarks, including the **Sidi Bouzid Abbey** and the **Societe de Mohamed Technology Museum**.
+Mid-Morning: Visit the **ISIE Sidi Bouzid** administrative establishment for insights into local governance.
+Midday: Indulge in a delicious local meal at **MIX FOOD**, a highly-rated Mexican restaurant.
+Afternoon: Immerse yourself in culture at the **Sidi Bouzid Kinesitherapy Center**, offering traditional healing practices.
+Evening: Stroll along **Ave Mohamed V** for shopping and enjoy a serene sunset at the scenic **Sidi Bouzid Taxi Rank**.
+Night: Relax and unwind with a traditional meal and local entertainment at **mT'm lmr 'byd - Restaurant Abid**.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+COSTA CAFE is a cafe located at(35.0388485, 9.4902576) in sidi bouzid. It has a rating of 4.3 based on 3 reviews and offers various amenities such as a featured image, website, phone number, address, and categories like Cafe.
+The Gold is a well-rated tea salon in Sidi Bouzid, Tunisia, that offers a cozy and relaxing atmosphere with a 4.3-star rating based on 3 reviews. It is located at coordinates (35.034902, 9.4619265) on Bd Mohamed Bouazizi.
+**mT`m lmr `byd - Restaurant Abid** is a restaurant located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid (35.0388485, 9.4902576). Its rating is 5/5 with 1 review. No other information is available at this day.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4938,12 +6721,58 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a Kinesitherapeute, check out Sidi bouzid located at 2FQV+RMJ Sidi bouzid, Sidi Bouzid. This top-rated destination with a rating of 4.8 is a must-visit spot. It's open 24/7, but closed on []. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 53 187 197.</t>
+          <t>Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Kinesitherapeute establishment in Sidi Bouzid that offers 24-hour service and has excellent GPS coordinates for easy navigation?</t>
+          <t>Day Plan:
+Morning: Explore Sidi Bouzid by visiting the ISIE Sidi Bouzid, a government building offering administrative services and insights into local governance.
+Mid-Morning: Immerse yourself in culture at Sidi Bouzid, a historic abbey with religious and historical attractions.
+Midday: Savory lunch at **MIX FOOD**, a highly-rated Mexican restaurant known for its delicious cuisine and friendly service.
+Afternoon: Explore the unique Societe de Mohamed, a technology museum showcasing the region's technological advancements.
+Evening: Indulge in local cuisine at RESTAURANT LA MAMMA, a 4.4-star rated restaurant offering a variety of dishes, ensuring a memorable dining experience.
+Night: Relax and rejuvenate at a local spa or hotel, unwinding after a fulfilling day of exploration and indulgence.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Loft Lounge is a cafe located in Sidi Bouzid, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 2FMF+8P4, `mr@ lbrqwqy and can be contacted at 93 386 338. The cafe has a rating of 4.0 out of 5 stars on Google Maps.
+The Gold is a well-rated tea salon in Sidi Bouzid, Tunisia, that offers a cozy and relaxing atmosphere with a 4.3-star rating based on 3 reviews. It is located at coordinates (35.034902, 9.4619265) on Bd Mohamed Bouazizi.
+The RESTAURANT LA MAMMA is located in Sidi Bouzid, Tunisia, at the following coordinates: (35.031703412371, 9.465656233972). 
+This restaurant offers a variety of dishes and has received a 4.4-star rating. It is open from 00:00-23:00, but closed on Sundays. You can reach the restaurant by phone at 98 235 744.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5045,14 +6874,57 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great cafe, check out Sidi Bouzid located at 2FPM+5H8 Sidi Bouzid. 
-This top-rated destination is the perfect spot for cafe lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, but closed on sundays. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>Sidi Bouzid, a cafe located in Sidi Bouzid (35.0388485, 9.4902576), is open 24 hours a day except on Sundays. It has received 3 reviews and has a 5.0 rating, indicating high customer satisfaction.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find a highly-rated cafe that's open 24/7, except for Sundays?</t>
+          <t>Day Plan:
+Morning: Explore YAHYAOUI COFFEE, a highly rated 24-hour cafe in Sidi Bouzid.
+Mid-Morning: Visit The Lodge, a tea room with a cozy ambiance and delicious breakfast options, only a short walk away.
+Midday: Try local cuisine at **mT`m lmr `byd - Restaurant Abid**, known for its excellent food and 5/5 rating.
+Afternoon: Engage in outdoor activities at Sidi Bouzid, such as cycling or relaxing in the scenic surroundings.
+Evening: Experience cultural immersion at The ISIE Sidi Bouzid, learning about the local government and its significance.
+Night: Savor authentic Mexican cuisine at **MIX FOOD**, a highly-rated restaurant in Sidi Bouzid offering a variety of delicious dishes.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+YAHYAOUI COFFEE is a cafe located in Sidi Bouzid, Tunisia. It offers 24 hour service and is highly rated by customers. It is located at 2FQM+2W7 YAHYAOUI COFFEE, Bd Mohamed Bouazizi, with coordinates (35.0388485, 9.4902576).
+Located in Sidi Bouzid, The Lodge is a tea room that offers a delightful breakfast. It's located at the coordinates (35.034902, 9.4619265). With a 4.6 rating based on 19 reviews, The Lodge is highly recommended for its cozy ambiance and delicious offerings.
+**mT`m lmr `byd - Restaurant Abid** is a restaurant located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid (35.0388485, 9.4902576). Its rating is 5/5 with 1 review. No other information is available at this day.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5146,12 +7018,63 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Sidi Bouzid located at Sidi Bouzid, `mr@ bn mHmwd, Sidi Bouzid 9100. This top-rated destination is perfect for Abbaye lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, visit their website at https://www.google.com/maps/place/Sidi+Bouzid/data=!4m7!3m6!1s0x12fec396b784e615:0xa5b8bb71e981efea!8m2!3d35.0393749!4d9.4940751!16s%2Fg%2F11t1tdbbxj!19sChIJFeaEt5bD_hIR6u-B6XG7uKU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you visit a highly-rated destination for Abbaye enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historical landmark of Sidi Bouzid Abbey, known for its religious significance and captivating architecture.
+**Mid-Morning:**
+- Indulge in the local culinary scene at **mT`m lmr `byd - Restaurant Abid**, a highly-rated restaurant offering authentic cuisine.
+**Midday:**
+- Immerse yourself in the cultural heritage of the Societe de Mohamed, a technology museum that showcases the region's industrial advancements.
+**Afternoon:**
+- Enjoy a leisurely stroll through the city's center and engage in shopping at local markets for souvenirs and crafts.
+**Evening:**
+- Savor a delicious Mexican meal at **MIX FOOD**, a highly-acclaimed restaurant with a warm and inviting ambiance.
+**Night:**
+- Relax and unwind at ROXY Pizzeria, known for its delectable pizzas and convivial atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Ezzahra cafe is a cafe located in Sidi Bouzid, Tunisia. It's a 24/7 cafe with 4/5 stars reviews on Google and is located in the following coordinates: 35.0388485, 9.4902576.
+The Gold is a tea room located in Sidi Bouzid. It has a rating of 4.3 out of 5 stars based on 3 reviews. The featured image shows a cozy and inviting atmosphere.
+**mT`m lmr `byd - Restaurant Abid** is a restaurant located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid (35.0388485, 9.4902576). Its rating is 5/5 with 1 review. No other information is available at this day.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5245,12 +7168,57 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something related to Administration, check out ISIE Sidi Bouzid located at Bd Mohamed Bouazizi. This top-rated destination with a rating of 4.0 is a must-visit spot. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find a highly rated (4.0) place related to Administration that's worth checking out?</t>
+          <t>Day Plan:
+Morning: Explore the historic Sidi Bouzid Abbey.
+Mid-Morning: Visit the Societe de Mohamed technology museum for a glimpse into the region's technological history.
+Midday: Try local cuisine at Break Time Fast Food, known for its highly-rated breakfast options.
+Afternoon: Enjoy scenic views at the scenic spot ROXY Pizzeria, while savoring a delicious pizza.
+Evening: Participate in the cultural immersion event at Sidi Bouzid kinesitherapy center, offering a unique insight into local cultural practices.
+Night: Relaxing with a delightful seafood dinner at recipe-fish-seafood restaurant, which provides 24-hour service.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Loft Lounge is a 4-star rated Cafe situated in Sidi Bouzid, Tunisia (coordinates 35.034902, 9.4619265). It provides 24h/24 service, and it's possible to contact it at the phone number 93 386 338.
+Casablanca is a 4.6-rated tea room located in Sidi Bouzid, Tunisia. It is open from 7am to midnight every day, and serves a variety of teas and pastries. Casablanca also has a featured image, reviews, and a link to its website.
+**Break Time Fast Food** in Sidi Bouzid is a highly-rated restaurant (5.0 stars from 1 review) that opens from 7:00 AM to 10:00 AM daily. It is closed on Sundays. Located at coordinates (35.0388485, 9.4902576), the restaurant's main category is "Restaurant" and it offers various dining options to customers in the area.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5352,14 +7320,63 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Societe de Mohamed located at 2FPM+6H6 Societe de Mohamed, mohamedsafikadri@gmail.com, Sidi Bouzid. 
-This top-rated destination is perfect for Musee de la technologie lovers and offers a range of Musee de la technologie to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-20:00, but closed on []. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website at https://www.google.com/maps/place/Soci%C3%A9t%C3%A9+de+Mohamed/data=!4m7!3m6!1s0x12fec39995434163:0xb7596326a800aee8!8m2!3d35.0355273!4d9.4838981!16s%2Fg%2F11pfbw0n69!19sChIJY0FDlZnD_hIR6K4AqCZjWbc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 95 220 416.</t>
+          <t>Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where can you visit a highly rated destination in Sidi Bouzid that caters to Musee de la technologie enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Take a guided tour of ISIE Sidi Bouzid, a government building that offers insights into local administration.
+**Mid-Morning:**
+- Explore the abbey of Sidi Bouzid, a popular tourist destination known for its religious and historical significance.
+**Midday:**
+- Enjoy a delightful breakfast at The Lodge, a charming tea room that serves a delicious morning meal in a cozy atmosphere.
+**Afternoon:**
+- Participate in an outdoor activity, such as hiking or biking, at the nearby Sidi Bouzid National Park.
+**Evening:**
+- Experience cultural immersion at the Societe de Mohamed, a technology museum that provides a unique glimpse into the local history and development of technology.
+**Night:**
+- Try local cuisine at **MIX FOOD**, a highly-rated Mexican restaurant known for its appetizing dishes and friendly service.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sidi Bouzid, a cafe located in Sidi Bouzid (35.0388485, 9.4902576), is open 24 hours a day except on Sundays. It has received 3 reviews and has a 5.0 rating, indicating high customer satisfaction.
+Nestled in the heart of Sidi Bouzid, "The Lodge" is a charming tea room that offers a delightful escape. Situated at coordinates (35.034902, 9.4619265), it welcomes guests to savor a delectable breakfast in a cozy and inviting ambiance.
+El Pescador Restaurant, located in Sidi Bouzid, is a highly-rated restaurant with a 4.5-star rating based on 12 reviews. Despite not providing a description, it is evident that El Pescador Restaurant is a popular spot with a strong reputation. It is situated at 2FMC+446 El Pescador Restaurant, Bd Mohamed Bouazizi, Sidi Bouzid, with coordinates (35.0388485, 9.4902576). The restaurant's precise menu offerings and other details remain unknown due to the lack of information provided.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5469,14 +7486,57 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out The Loft Lounge located at 2FMF+8P4 The Loft Lounge, `mr@ lbrqwqy, Sidi Bouzid 9100. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D61553937093550 or call them at 93 386 338.</t>
+          <t>The Loft Lounge is a cafe located in Sidi Bouzid, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 2FMF+8P4, `mr@ lbrqwqy and can be contacted at 93 386 338. The cafe has a rating of 4.0 out of 5 stars on Google Maps.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafe spot with a unique ambiance in Sidi Bouzid?</t>
+          <t>Day Plan:
+Morning: Explore the charm of "The Lodge" tea room, savoring a delightful breakfast in a cozy ambiance.
+Mid-Morning: Immerse yourself in the culture and history of Sidi Bouzid by taking a guided tour of the local abbey or visit the technology museum, Societe de Mohamed.
+Midday: Indulge in the authentic flavors of Sidi Bouzid cuisine at **MIX FOOD**, a highly-rated Mexican restaurant.
+Afternoon: Engage in some retail therapy and explore the vibrant street markets of Sidi Bouzid, discovering unique local products and souvenirs.
+Evening: Take a leisurely stroll through the scenic streets of Sidi Bouzid, capturing the beauty of the city in the golden light of dusk.
+Night: Enjoy a memorable dinner at recipe-fish-seafood, specializing in delectable seafood dishes, and soak in the vibrant ambiance of the restaurant.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+2B Coffee is a cafe located in Sidi Bouzid, Tunisia. It has a rating of 4.4 stars based on 17 reviews. The cafe is open daily and offers a variety of coffee drinks, as well as pastries and other snacks. 2B Coffee is located at 2FGG+3J, Sidi Bouzid, Tunisia.
+Nestled in the heart of Sidi Bouzid, "The Lodge" is a charming tea room that offers a delightful escape. Situated at coordinates (35.034902, 9.4619265), it welcomes guests to savor a delectable breakfast in a cozy and inviting ambiance.
+mT`m lTrbwsh Restaurant Tarbouch is a restaurant located in Sidi Bouzid. It has a rating of 4.8 stars and offers a variety of dishes. The restaurant is located at 2FQM+5FX mT`m lTrbwsh Restaurant Tarbouch, nhj ljm`, Sidi Bouzid, with the coordinates (35.0388485, 9.4902576).
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5578,12 +7638,57 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great place to eat, check out Jet Set located at 2FQV+VJ4. This top-rated restaurant is perfect for food lovers and offers a delicious range of dishes to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 04:00-00:00. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>Jet Set is a restaurant located in Sidi Bouzid, Tunisia, offering a variety of dishes and beverages. It is situated at coordinates (35.0388485, 9.4902576), has received a rating of 4.1 out of 5 based on 27 reviews, and is open from 4:00 AM to midnight every day.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find the highly-rated restaurant, Jet Set, known for its delectable cuisine and convenient location?</t>
+          <t>Day Plan:
+Morning: Explore Sidi Bouzid (Visit Sidi Bouzid Abbey, ISIE Sidi Bouzid, and the local taxi rank for a unique glimpse into the city's history and culture.)
+Mid-Morning: Experience local cuisine at pizzeria Maboub (Indulge in delicious pizzas while soaking in the city's vibrant atmosphere.)
+Midday: Visit Societe de Mohamed (Discover the fascinating history of technology and local industry at this unique museum.)
+Afternoon: Relax with a guided tour of the nearby beach (Take a leisurely walk along the scenic coast,享受 the beauty of nature and escape the hustle and bustle of the city.)
+Evening: Participate in a cooking class at recipe-fish-seafood (Immerse yourself in the local culinary traditions and learn to prepare authentic seafood dishes.)
+Night: Enjoy a traditional meal at mT`m lmr `byd - Restaurant Abid (Savor the flavors of Tunisian cuisine in a cozy and inviting ambiance.)</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Loft Lounge is a cafe located in Sidi Bouzid, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 2FMF+8P4, `mr@ lbrqwqy and can be contacted at 93 386 338. The cafe has a rating of 4.0 out of 5 stars on Google Maps.
+The Gold is a tea room located in Sidi Bouzid. It has a rating of 4.3 out of 5 stars based on 3 reviews. The featured image shows a cozy and inviting atmosphere.
+**mT`m lmr `byd - Restaurant Abid** is a restaurant located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid (35.0388485, 9.4902576). Its rating is 5/5 with 1 review. No other information is available at this day.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5689,14 +7794,63 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out ROXY Pizzeria located at 2FMC+C84 ROXY Pizzeria, Bd Mohamed Bouazizi, Sidi Bouzid. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 23 263 929.</t>
+          <t>ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find ROXY Pizzeria, a highly-rated destination with a range of Pizzeria options and a 4.0 rating?</t>
+          <t>Day Plan:
+Morning:
+- Take a guided tour of the historical Sidi Bouzid Abbey (located at 35.034902, 9.4619265) to explore its beautiful architecture and learn about its significance.
+Mid-Morning:
+- Visit the nearby Sidi Bouzid kinesitherapy center (located at coordinates (35.0388485, 9.4902576) for a relaxing massage or treatment.
+Midday:
+- Savor a delightful lunch at the highly-rated MIX FOOD restaurant (located at 2FJG+XPH MIX FOOD, Ave Mohamed V), offering authentic Mexican cuisine.
+Afternoon:
+- Explore the fascinating Societe de Mohamed technology museum (located at 2FPM+6H6) to learn about the local technology industry and its advancements.
+Evening:
+- Indulge in a delightful dinner at RESTAURANT LA MAMMA (located at (35.031703412371, 9.465656233972)) and savor the exquisite flavors of Tunisian cuisine.
+Night:
+- Head to ROXY Pizzeria (located at 2FMC+C84 Bd Mohamed Bouazizi) for a night filled with delicious pizzas and a vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sidi Bouzid is a highly-rated cafe located at 2FPM+5H8 in Sidi Bouzid. It is open 24 hours a day and closed on Sundays. Sidi Bouzid offers a welcoming atmosphere and has received positive reviews from its patrons.
+Casablanca is a tea room located in Sidi Bouzid, Tunisia, at the coordinates (35.0388485, 9.4902576). It is highly rated, with 4.6 stars based on 10 reviews. Casablanca is open daily from 7:00 AM to midnight and offers a cozy ambiance for enjoying a cup of tea.
+RESTAURANT LA MAMMA is a restaurant located in Sidi Bouzid (Tunisia) at the coordinates (35.031703412371, 9.465656233972). It has a rating of 4.4 out of 5 based on 9 reviews and is open from 00:00 to 23:00 every day except Sunday. The restaurant's main category is Restaurant.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5798,14 +7952,57 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out The Lodge located at The Lodge, Unnamed Road, 9100 Av. De Baghdad, Sidi Bouzid. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, visit their website at https://www.google.com/maps/place/The+Lodge/data=!4m7!3m6!1s0x12fec3d4fcb2f413:0x4158ddb5c37390d1!8m2!3d35.0335206!4d9.4758589!16s%2Fg%2F11fl0tc775!19sChIJE_Sy_NTD_hIR0ZBzw7XdWEE?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Located in Sidi Bouzid, The Lodge is a tea room that offers a delightful breakfast. It's located at the coordinates (35.034902, 9.4619265). With a 4.6 rating based on 19 reviews, The Lodge is highly recommended for its cozy ambiance and delicious offerings.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where can you find a popular Salon de the destination with a rating of 4.6 in Sidi Bouzid?</t>
+          <t>Day Plan:
+Morning: Explore the historic Sidi Bouzid Abbey, admiring its religious and historical significance.
+Mid-Morning: Visit the Societe de Mohamed technology museum to learn about the local industry's evolution.
+Midday: Try local cuisine at Pizzeria Maboub, indulging in their highly-rated pizza.
+Afternoon: Relax and enjoy scenic views at the ISIE Sidi Bouzid government building.
+Evening: Experience cultural immersion by visiting the Sidi Bouzid Kinesiology practice.
+Night: Enjoy delicious Mexican food at MIX FOOD, savoring its authentic flavors and ambiance.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Loft Lounge is a 4-star rated Cafe situated in Sidi Bouzid, Tunisia (coordinates 35.034902, 9.4619265). It provides 24h/24 service, and it's possible to contact it at the phone number 93 386 338.
+**Big 4 Coffee Lounge**: A cozy coffee lounge located in the heart of Sidi Bouzid, Tunisia. Situated at coordinates (35.034902, 9.4619265), it offers a relaxing ambiance and a delightful menu of coffee, tea, and snacks.
+L'yasmina, a renowned restaurant situated at 2FQQ+QMF L'yasmina, rue ibn mandhour, Sidi Bouzid, offers delectable culinary delights. Boasting a remarkable rating of 4.8, it is renowned for its exceptional cuisine. With a convenient opening time of 8 AM to 9 PM, excluding Sundays, it provides a welcoming atmosphere for diners.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5911,12 +8108,57 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated Restaurant experience, check out El Pescador Restaurant located at 2FMC+446 El Pescador Restaurant, Bd Mohamed Bouazizi, Sidi Bouzid. This excellent spot offers a 4.5 rating with 12 reviews. It's open during these hours: 11:00-22:30, but closed on samedi, dimanche. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 53 059 000.</t>
+          <t>El Pescador Restaurant is a restaurant located in Sidi Bouzid, Tunisia (35.0388485, 9.4902576). It has a 4.5 rating on Google based on 12 reviews. It is open every day from 11:00 to 22:30, except on Saturdays and Sundays, and offers a wide range of dining options.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>What is the location of the top-rated restaurant in Sidi Bouzid known for its exceptional dining experience?</t>
+          <t>Day Plan:
+Morning: Take a guided tour of the ISIE Sidi Bouzid, learning about the local government and administrative services.
+Mid-Morning: Visit recipe-fish-seafood, indulge in a delicious seafood lunch, and experience the flavors of Sidi Bouzid's culinary scene.
+Midday: Explore the Societe de Mohamed, where you'll delve into the rich history and development of technology in the region.
+Afternoon: Drive over to Pizzeria Maboub for a delightful pizza feast. Enjoy the highly-rated dishes in this top-rated pizzeria.
+Evening: Head to **MIX FOOD**, a highly-rated Mexican restaurant where you can savor authentic Mexican cuisine and enjoy a vibrant ambiance.
+Night: Take a walk to the scenic Sidi Bouzid abbey, admiring its architectural beauty and immersing yourself in its spiritual ambiance.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+BIG SMARI JUICE is a 5-star rated cafe located in Sidi Bouzid at coordinates (35.0388485, 9.4902576). Open from 7:00 AM to 7:00 PM, it features a variety of cafe offerings.
+Casablanca is a tea room located in Sidi Bouzid, Tunisia, at the coordinates (35.0388485, 9.4902576). It is highly rated, with 4.6 stars based on 10 reviews. Casablanca is open daily from 7:00 AM to midnight and offers a cozy ambiance for enjoying a cup of tea.
+**mT`m lmr `byd - Restaurant Abid** is a restaurant located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid (35.0388485, 9.4902576). Its rating is 5/5 with 1 review. No other information is available at this day.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6022,14 +8264,57 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Casablanca located at Bd Mohamed Bouazizi. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, call them at 54 771 771.</t>
+          <t>Casablanca is a tea room located in Sidi Bouzid, Tunisia, at the coordinates (35.0388485, 9.4902576). It is highly rated, with 4.6 stars based on 10 reviews. Casablanca is open daily from 7:00 AM to midnight and offers a cozy ambiance for enjoying a cup of tea.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>If you're seeking a highly rated destination for Salon de the enthusiasts in Sidi Bouzid, what location should you visit, known for its exceptional range of options and prime location?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Sidi Bouzid abbey
+Mid-Morning: Trying local cuisine at the highly-rated **MIX FOOD** Mexican restaurant
+Midday: Visiting the ISIE Sidi Bouzid administrative establishment for insights into local governance
+Afternoon: Enjoying a traditional tea experience at The Gold tea salon
+Evening: Relaxing with a scenic walk at Discover Cafe Belvue
+Night: Participating in a guided tour of the Societe de Mohamed technology museum</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Cafe Belvue, a cozy cafe located in the heart of Sidi Bouzid. Known for its welcoming atmosphere, Cafe Belvue offers a wide selection of coffee, tea, and pastries to savor. Situated at coordinates (35.034902, 9.4619265), it's the perfect spot to relax, socialize, and enjoy a delightful break.
+The Gold is a well-rated tea salon in Sidi Bouzid, Tunisia, that offers a cozy and relaxing atmosphere with a 4.3-star rating based on 3 reviews. It is located at coordinates (35.034902, 9.4619265) on Bd Mohamed Bouazizi.
+Resaurant ALI BABA is a restaurant located in Sidi Bouzid, Tunisia. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is located at the coordinates (35.0388485, 9.4902576).
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6135,14 +8420,64 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a tasty bite, check out RESTAURANT LA MAMMA located at 2FMF+GFJ RESTAURANT LA MAMMA, AVENUE HABIB BOURGUIBA. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 00:00-23:00, but closed on dimanche. To get there, use these GPS coordinates: 35.031703412371, 9.465656233972. For more details, call them at 98 235 744.</t>
+          <t>The RESTAURANT LA MAMMA is located in Sidi Bouzid, Tunisia, at the following coordinates: (35.031703412371, 9.465656233972). 
+This restaurant offers a variety of dishes and has received a 4.4-star rating. It is open from 00:00-23:00, but closed on Sundays. You can reach the restaurant by phone at 98 235 744.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find a top-rated restaurant with a high rating and a convenient location?</t>
+          <t>**Day Plan:**
+**Morning:**
+* **Explore Sidi Bouzid:** Take a guided tour of the historic city center, visit the Sidi Bouzid Abbey, and immerse yourself in the local culture.
+**Mid-Morning:**
+* **Visit the Bouzid Mechanic Shop:** Experience local craftsmanship and learn about the region's automotive industry.
+**Midday:**
+* **Try local cuisine at Cafe Volcano:** Savor a traditional Tunisian meal in a charming cafe amidst the vibrant atmosphere of Sidi Bouzid.
+**Afternoon:**
+* **Relax at ISIE Sidi Bouzid:** Admire the administrative building's architecture and enjoy a peaceful break in its tranquil surroundings.
+**Evening:**
+* **Shop at the local market:** Browse local handicrafts, souvenirs, and traditional products that reflect the region's rich heritage.
+**Night:**
+* **Indulge in Mexican cuisine at MIX FOOD:** Celebrate the evening with an authentic Mexican meal and enjoy the vibrant ambiance of this top-rated restaurant.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Volcano, located in Sidi Bouzid, is an exceptional cafe with a 4.7-star rating. It is a popular spot for locals and tourists alike. The cafe offers a wide variety of coffee, tea, and other beverages. It is also a great place to relax and enjoy the vibrant atmosphere of Sidi Bouzid. The cafe is open from 6:00 AM to 11:00 PM seven days a week.
+Casablanca is a 4.6-rated tea room located in Sidi Bouzid, Tunisia. It is open from 7am to midnight every day, and serves a variety of teas and pastries. Casablanca also has a featured image, reviews, and a link to its website.
+Fast Food is a restaurant located in 2FQV+G4G Fast food, C83, Sidi Bouzid. Its main category is Restaurant and its rating is 4.0. The restaurant is not in the city center.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6248,14 +8583,58 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Pizza_Maestro located at 9100 Bd Mohamed Bouazizi. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, call them at 97 132 700.</t>
+          <t>Pizza_Maestro is a 4.0 star rated restaurant located in Sidi Bouzid, Tunisia. It has 8 reviews and is open from 8:00 AM to 11:00 PM.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Restaurant destination offering a variety of categories in Sidi Bouzid located at 9100 Bd Mohamed Bouazizi, with GPS coordinates of 35.034902, 9.4619265?</t>
+          <t>Day Plan:
+Morning: Exploring Sidi Bouzid
+Mid-Morning: Trying local cuisine at RESTAURANT LA MAMMA
+Midday: Visiting Sidi Bouzid abbey
+Afternoon: Relaxing with a cup of tea at The Lodge
+Evening: Enjoying a delightful dinner at MIX FOOD
+Night: Engaging in cultural immersion at Societe de Mohamed</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Kimo cafe** is a cozy cafe located in Sidi Bouzid, Tunisia. It offers a warm and inviting atmosphere, perfect for relaxing and enjoying a cup of coffee or tea. The cafe also serves a variety of pastries and snacks, making it the perfect place to grab a bite to eat. Kimo cafe is conveniently located in the heart of Sidi Bouzid, making it easy to access. With its friendly staff and great coffee, Kimo cafe is the perfect place to relax and enjoy a moment of peace.
+Nestled in the heart of Sidi Bouzid, "The Lodge" is a charming tea room that offers a delightful escape. Situated at coordinates (35.034902, 9.4619265), it welcomes guests to savor a delectable breakfast in a cozy and inviting ambiance.
+The RESTAURANT LA MAMMA is located in Sidi Bouzid, Tunisia, at the following coordinates: (35.031703412371, 9.465656233972). 
+This restaurant offers a variety of dishes and has received a 4.4-star rating. It is open from 00:00-23:00, but closed on Sundays. You can reach the restaurant by phone at 98 235 744.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6361,14 +8740,57 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated dining experience, check out L'yasmina located at 2FQQ+QMF L'yasmina, rue ibn mandhour. 
-This popular destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 08:00-21:00, but closed on dimanche. To get there, use these GPS coordinates: 35.039457751658, 9.489923389555. For more details, call them at 53 797 366.</t>
+          <t>L'yasmina, a renowned restaurant situated at 2FQQ+QMF L'yasmina, rue ibn mandhour, Sidi Bouzid, offers delectable culinary delights. Boasting a remarkable rating of 4.8, it is renowned for its exceptional cuisine. With a convenient opening time of 8 AM to 9 PM, excluding Sundays, it provides a welcoming atmosphere for diners.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find a highly-rated dining spot with a 4.8 rating, perfect for Restaurant lovers, and offering a wide selection of categories?</t>
+          <t>Day Plan:
+Morning: Exploring the historic abbey at Sidi Bouzid
+Mid-Morning: Trying local cuisine at the highly-rated MIX FOOD Mexican restaurant
+Midday: Visiting the technology museum Societe de Mohamed to learn about local industry
+Afternoon: Enjoying scenic views at the ISIE Sidi Bouzid government building
+Evening: Relaxing with a hammam experience at a local spa
+Night: Experiencing cultural immersion at the Sidi Bouzid Kinesiology practice</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+BEN jaloul is a 5-star rated cafe located in Sidi Bouzid, Tunisia. It is open from 7:00 AM to 11:30 PM and offers a variety of food and drinks. The cafe is located at the following coordinates: 35.0421933, 9.4950972.
+The Gold is a tea room located in Sidi Bouzid. It has a rating of 4.3 out of 5 stars based on 3 reviews. The featured image shows a cozy and inviting atmosphere.
+Restaurant Alkhayma Sidi Bouzid is a 5-star restaurant located in Sidi Bouzid, Tunisia. It offers a variety of dishes, and is open from 8am to 9pm. The restaurant is located at Bd Mohamed Bouazizi, and can be contacted at 90 363 142.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6466,12 +8888,63 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out mT`m lTrbwsh Restaurant Tarbouch located at 2FQM+5FX mT`m lTrbwsh Restaurant Tarbouch, nhj ljm`, Sidi Bouzid. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D8%A7%D9%84%D8%B7%D8%B1%D8%A8%D9%88%D8%B4+Restaurant+Tarbouch%E2%80%AD/data=!4m7!3m6!1s0x12fec307aacd0a89:0x178b516c9ff2a00d!8m2!3d35.0379863!4d9.4837242!16s%2Fg%2F11jxtgzsvv!19sChIJiQrNqgfD_hIRDaDyn2xRixc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>mT`m lTrbwsh Restaurant Tarbouch is a restaurant located in Sidi Bouzid. It has a rating of 4.8 stars and offers a variety of dishes. The restaurant is located at 2FQM+5FX mT`m lTrbwsh Restaurant Tarbouch, nhj ljm`, Sidi Bouzid, with the coordinates (35.0388485, 9.4902576).</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find the highly-rated mT`m lTrbwsh Restaurant Tarbouch, offering a variety of restaurant options that have earned it a 4.8 rating?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historical Sidi Bouzid Abbey (Attraction)
+**Mid-Morning:**
+- Try local cuisine at the highly-rated **MIX FOOD** (Restaurant)
+**Midday:**
+- Visit the ISIE Sidi Bouzid for an administrative tour (Landmark)
+**Afternoon:**
+- Enjoy a relaxing afternoon with a guided tour of the Societe de Mohamed technology museum (Museum/Cultural Site)
+**Evening:**
+- Head to ROXY Pizzeria for a delicious dinner (Restaurant)
+**Night:**
+- Experience the vibrant nightlife at The Gold tea salon (Recreational Activity)</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Ezzahra cafe is a cafe located in Sidi Bouzid, Tunisia. It's a 24/7 cafe with 4/5 stars reviews on Google and is located in the following coordinates: 35.0388485, 9.4902576.
+The Gold is a well-rated tea salon in Sidi Bouzid, Tunisia, that offers a cozy and relaxing atmosphere with a 4.3-star rating based on 3 reviews. It is located at coordinates (35.034902, 9.4619265) on Bd Mohamed Bouazizi.
+Pizza_Maestro is a 4.0 star rated restaurant located in Sidi Bouzid, Tunisia. It has 8 reviews and is open from 8:00 AM to 11:00 PM.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6577,16 +9050,57 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid, Restaurant Alkhayma Sidi Bouzid mT`m lkhym@ is a top-rated restaurant located at Bd Mohamed Bouazizi, Sidi Bouzid 9100.
-This 5.0-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories.
-It's open during these hours: 08:00-21:00, but closed on [].
-To get there, use these GPS coordinates: 35.034902, 9.4619265.
-For more details, visit their website at nan or call them at 90 363 142.</t>
+          <t>Restaurant Alkhayma Sidi Bouzid is a 5-star restaurant located in Sidi Bouzid, Tunisia. It offers a variety of dishes, and is open from 8am to 9pm. The restaurant is located at Bd Mohamed Bouazizi, and can be contacted at 90 363 142.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>What is the highly-rated restaurant in Sidi Bouzid with 5.0 stars, ideally suited for Restaurant enthusiasts, and has a unique dining experience?</t>
+          <t>Day Plan:
+Morning: Explore **Sidi Bouzid Abbey** (35.034902, 9.4619265) for its historical and religious significance
+Mid-Morning: Visit the **ISIE Sidi Bouzid** for an insight into local government and administrative services
+Midday: Savor delicious Mexican cuisine at **MIX FOOD** (2FJG+XPH), known for its authentic dishes (1 review, 5.0 rating)
+Afternoon: Enjoy a guided tour of the **Societe de Mohamed** technology museum (2FPM+6H6) to explore local industry and innovation
+Evening: Explore **ROXY Pizzeria** (2FMC+C84) for a wide variety of pizzas in a lively atmosphere (26 reviews, 4.0 rating)
+Night: Relax and unwind with a cup of tea at **Casablanca** (35.0388485, 9.4902576) before retiring to your hotel</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sidi Bouzid, a cafe located in Sidi Bouzid (35.0388485, 9.4902576), is open 24 hours a day except on Sundays. It has received 3 reviews and has a 5.0 rating, indicating high customer satisfaction.
+Casablanca is a tea room located in Sidi Bouzid, Tunisia, at the coordinates (35.0388485, 9.4902576). It is highly rated, with 4.6 stars based on 10 reviews. Casablanca is open daily from 7:00 AM to midnight and offers a cozy ambiance for enjoying a cup of tea.
+Jet Set is a restaurant located in Sidi Bouzid, Tunisia, offering a variety of dishes and beverages. It is situated at coordinates (35.0388485, 9.4902576), has received a rating of 4.1 out of 5 based on 27 reviews, and is open from 4:00 AM to midnight every day.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6684,14 +9198,57 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great place to relax, check out The Gold located at 2FMC+33M The Gold, Bd Mohamed Bouazizi, Sidi Bouzid 9100. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.034902, 9.4619265.</t>
+          <t>The Gold is a well-rated tea salon in Sidi Bouzid, Tunisia, that offers a cozy and relaxing atmosphere with a 4.3-star rating based on 3 reviews. It is located at coordinates (35.034902, 9.4619265) on Bd Mohamed Bouazizi.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>What is the great place to relax in Sidi Bouzid with a high rating of 4.3 for Salon de the lovers?</t>
+          <t>Day Plan:
+Morning: Explore the charming "The Lodge" tea room, nestled in the heart of Sidi Bouzid.
+Mid-Morning: Indulge in a delectable breakfast at the tea room, savoring the cozy ambiance and delightful atmosphere.
+Midday: Head to Pizzeria Maboub, a top-rated pizzeria, and savor the delicious pizza options while enjoying the lively atmosphere.
+Afternoon: Engage in outdoor activities at the scenic Sidi Bouzid abbey, immersing yourself in its religious and historical significance while capturing breathtaking views.
+Evening: Experience the vibrant local cuisine at "mT`m lmr `byd - Restaurant Abid," where you can enjoy authentic dishes and delve into the local culinary scene.
+Night: Relax and unwind at the ISIE Sidi Bouzid, enjoying the peaceful ambiance while learning about the local administrative services and electoral processes.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La piazza is a cafe located in Sidi Bouzid, offering a cozy ambiance and a range of menu items. It's open from 07:30-22:30 during the week and closed on Sundays. It has received positive reviews from customers, with some mentioning a great experience.
+Nestled in the heart of Sidi Bouzid, "The Lodge" is a charming tea room that offers a delightful escape. Situated at coordinates (35.034902, 9.4619265), it welcomes guests to savor a delectable breakfast in a cozy and inviting ambiance.
+**mT`m lmr `byd - Restaurant Abid** is a restaurant located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid (35.0388485, 9.4902576). Its rating is 5/5 with 1 review. No other information is available at this day.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6789,14 +9346,57 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Pizzeria Mahboub located at 2FJF+G34 Pizzeria Mahboub, Ave Mohamed V,. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+Mahboub/data=!4m7!3m6!1s0x12fec3c7f53751e9:0x1ada7767943de41c!8m2!3d35.0312547!4d9.4726944!16s%2Fg%2F11scx9c8n3!19sChIJ6VE39cfD_hIRHOQ9lGd32ho?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated pizzeria with a wide selection of options in Sidi Bouzid, known for its top-notch Pizzeria?</t>
+          <t>Day Plan:
+Morning: Explore the historical abbey of Sidi Bouzid.
+Mid-Morning: Visit the Societe de Mohamed Technology Museum to learn about the local industry.
+Midday: Indulge in a delightful seafood lunch at recipe-fish-seafood.
+Afternoon: Relax and rejuvenate with a serene massage at the highly-rated Sidi Bouzid Kinesitherapy Center.
+Evening: Savor the evening at **MIX FOOD**, a highly-rated Mexican restaurant, for an authentic culinary experience.
+Night: Experience the vibrant nightlife at Casablanca Tea Room, open until midnight.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Mimo's is a cafe located in Sidi Bouzid, Tunisia. It is rated 4.5 out of 5 stars on Google Maps, and offers a variety of coffee, tea, and snacks. The cafe is open from 8am to 10pm, and is located at 2FMF+258, Sidi Bouzid.
+Casablanca is a 4.6-rated tea room located in Sidi Bouzid, Tunisia. It is open from 7am to midnight every day, and serves a variety of teas and pastries. Casablanca also has a featured image, reviews, and a link to its website.
+Pizza_Maestro is a 4.0 star rated restaurant located in Sidi Bouzid, Tunisia. It has 8 reviews and is open from 8:00 AM to 11:00 PM.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6902,12 +9502,57 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Cafe Restaurant BALANCE located at Cafe Restaurant BALANCE, 9100, Sidi Bouzid 9100. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-20:00, but closed on []. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, visit their website at nan or call them at 99 417 607.</t>
+          <t>Cafe Restaurant BALANCE is a highly-rated cafe in Sidi Bouzid, Tunisia, with a 4.5-star rating based on 2 reviews. Located at the coordinates (35.034902, 9.4619265), the cafe offers a welcoming ambiance and a delicious menu. Its weekday timing is from 8 am to 8 pm, providing ample opportunity to enjoy its offerings.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you enjoy a highly-rated Cafe experience with a wide selection of options at Cafe Restaurant BALANCE?</t>
+          <t>Day Plan:
+Morning: Explore the historical Sidi Bouzid by visiting the Sidi Bouzid Abbey and learning about its religious and historical significance.
+Mid-Morning: Indulge in a delicious breakfast at The Lodge, a cozy tea room known for its delightful offerings.
+Midday: Savor the flavors of local cuisine at Pizzeria Maboub, a top-rated pizzeria renowned for its mouthwatering pizza options.
+Afternoon: Engage in some shopping at the lively market, where you can browse local crafts, souvenirs, and fresh produce.
+Evening: Immerse yourself in the flavors of Mexican cuisine at **MIX FOOD**, a highly-acclaimed Mexican restaurant serving tantalizing dishes.
+Night: Experience the vibrant nightlife of Sidi Bouzid at La Terasse, a popular cafe offering a friendly atmosphere, great music, and refreshing drinks.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Terasse is a popular cafe with high ratings and positive reviews. It is located in Sidi Bouzid and serves a wide variety of food and drinks in a friendly and inviting atmosphere. The cafe is known for its delicious coffee, pastries, and sandwiches. It is also a great place to meet friends and relax. The cafe is open from 6:30 am to midnight, seven days a week.
+Located in Sidi Bouzid, The Lodge is a tea room that offers a delightful breakfast. It's located at the coordinates (35.034902, 9.4619265). With a 4.6 rating based on 19 reviews, The Lodge is highly recommended for its cozy ambiance and delicious offerings.
+Resaurant ALI BABA is a restaurant located in Sidi Bouzid, Tunisia. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is located at the coordinates (35.0388485, 9.4902576).
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7005,12 +9650,59 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Kimo cafe located at 2FM9+CWH Kimo cafe, C125, Sidi Bouzid. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on . To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website at .</t>
+          <t>"Kimo Cafe" is a cafe located in the city of Sidi Bouzid at coordinates (35.0388485, 9.4902576). It has a rating of 5.0 stars based on 2 reviews and is a popular spot for people to enjoy a coffee or a snack.</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find Kimo Cafe, a highly-rated destination known for its exceptional Cafe offerings?</t>
+          <t>Day Plan:
+Morning: Exploring Sidi Bouzid Abbey
+Mid-Morning: Trying local cuisine at Pizzeria Maboub
+Midday: Visiting The ISIE Sidi Bouzid
+Afternoon: Shopping at the local market
+Evening: Relaxing in a spa
+Night: Enjoying scenic views at the scenic spot</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Vivarium Cafe** is a highly-rated (4.0/5) cafe located at 5 rue Palestine in Sidi Bouzid, Tunisia. It offers a wide range of hot and cold beverages, as well as a variety of snacks and light meals. It is a great place to relax with friends or grab a quick bite to eat.
+**Coordinates:** (35.038021317603, 9.494247474676)
+**Hours:** Open 24 hours a day
+Casablanca is a 4.6-rated tea room located in Sidi Bouzid, Tunisia. It is open from 7am to midnight every day, and serves a variety of teas and pastries. Casablanca also has a featured image, reviews, and a link to its website.
+**Break Time Fast Food** in Sidi Bouzid is a highly-rated restaurant (5.0 stars from 1 review) that opens from 7:00 AM to 10:00 AM daily. It is closed on Sundays. Located at coordinates (35.0388485, 9.4902576), the restaurant's main category is "Restaurant" and it offers various dining options to customers in the area.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7108,14 +9800,57 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a good place to eat, check out Fast food at C83, Sidi Bouzid. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4, it's a must-visit spot. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>Fast Food is a restaurant located in 2FQV+G4G Fast food, C83, Sidi Bouzid. Its main category is Restaurant and its rating is 4.0. The restaurant is not in the city center.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant offering a variety of dining options in Sidi Bouzid?</t>
+          <t>Day Plan:
+Morning: Exploring Sidi Bouzid, a quaint town with historical charm.
+Mid-Morning: Trying local cuisine at Break Time Fast Food, a highly-rated restaurant offering a variety of dining options.
+Midday: Visiting Sidi Bouzid Abbey, a popular tourist destination with religious and historical significance.
+Afternoon: Enjoying a guided tour of Societe de Mohamed, a technology museum showcasing the history and development of local industry.
+Evening: Shopping at MIX FOOD, a top-rated Mexican restaurant offering delicious cuisine.
+Night: Relaxing with a cup of coffee and pastries at La Terasse, a popular café with a friendly atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Terasse is a popular cafe with high ratings and positive reviews. It is located in Sidi Bouzid and serves a wide variety of food and drinks in a friendly and inviting atmosphere. The cafe is known for its delicious coffee, pastries, and sandwiches. It is also a great place to meet friends and relax. The cafe is open from 6:30 am to midnight, seven days a week.
+Located in Sidi Bouzid, The Lodge is a tea room that offers a delightful breakfast. It's located at the coordinates (35.034902, 9.4619265). With a 4.6 rating based on 19 reviews, The Lodge is highly recommended for its cozy ambiance and delicious offerings.
+**Break Time Fast Food** in Sidi Bouzid is a highly-rated restaurant (5.0 stars from 1 review) that opens from 7:00 AM to 10:00 AM daily. It is closed on Sundays. Located at coordinates (35.0388485, 9.4902576), the restaurant's main category is "Restaurant" and it offers various dining options to customers in the area.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7225,15 +9960,57 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a delicious Mexican meal, check out MIX FOOD at 2FJG+XPH MIX FOOD, Ave Mohamed V. 
-This top-rated restaurant is perfect for Mexican food lovers and offers a range of dishes to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on unknown days. 
-To get there, use these GPS coordinates: 35.033395959383, 9.479163264733. For more details, visit their website at https://m.facebook.com/Mix-Food-110174748554305/ or call them at 50 844 517.</t>
+          <t>**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Mexican restaurant with a 5.0 rating and a wide menu selection in Sidi Bouzid?</t>
+          <t>Day Plan:
+Morning: Explore Sidi Bouzid and visit the Kinesiology practice.
+Mid-Morning: Try local cuisine at mT`m lmr `byd - Restaurant Abid.
+Midday: Visit the historic Sidi Bouzid abbey.
+Afternoon: Relax with a pampering session at a local spa.
+Evening: Enjoy dinner at the highly-rated MIX FOOD Mexican restaurant.
+Night: Take a scenic walk around the city and enjoy the vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+BEN jaloul is a 5-star rated cafe located in Sidi Bouzid, Tunisia. It is open from 7:00 AM to 11:30 PM and offers a variety of food and drinks. The cafe is located at the following coordinates: 35.0421933, 9.4950972.
+The Gold is a tea room located in Sidi Bouzid. It has a rating of 4.3 out of 5 stars based on 3 reviews. The featured image shows a cozy and inviting atmosphere.
+**mT`m lmr `byd - Restaurant Abid** is a restaurant located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid (35.0388485, 9.4902576). Its rating is 5/5 with 1 review. No other information is available at this day.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7335,12 +10112,58 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great spot for Restaurant de poisson, check out recipe-fish-seafood. With a 5.0 rating, this popular destination offers a delicious range of Restaurant de poisson options. It's open 24 hours a day, so you can visit anytime. For more details, visit their website at https://www.google.com/maps/place/recipe-fish-seafood/data=!4m7!3m6!1s0x12fec3573c54571d:0x2f101ff0633dd446!8m2!3d35.0354234!4d9.483967!16s%2Fg%2F11tjfh14vf!19sChIJHVdUPFfD_hIRRtQ9Y_AfEC8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find a highly-rated (5.0) restaurant serving delicious seafood dishes and open 24/7?</t>
+          <t>Day Plan:
+Morning: Visit the Sidi Bouzid abbey and explore its historical and religious significance.
+Mid-Morning: Take a guided tour of the Societe de Mohamed technology museum to gain insights into the local technology industry and its history.
+Midday: Try local cuisine at **MIX FOOD**, a highly-rated Mexican restaurant offering a variety of delicious dishes.
+Afternoon: Relax and rejuvenate with a massage at a local spa or hotel.
+Evening: Explore the Ezzahra cafe, known for its cozy ambiance and 24/7 service, and enjoy a cup of coffee or tea.
+Night: Visit the Pizzeria Maboub, a top-rated pizzeria with excellent pizza options and a 5.0 rating, for a satisfying and memorable dining experience.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Ezzahra cafe is a cafe located in Sidi Bouzid, Tunisia. It's a 24/7 cafe with 4/5 stars reviews on Google and is located in the following coordinates: 35.0388485, 9.4902576.
+Casablanca is a tea room located in Sidi Bouzid, Tunisia, at the coordinates (35.0388485, 9.4902576). It is highly rated, with 4.6 stars based on 10 reviews. Casablanca is open daily from 7:00 AM to midnight and offers a cozy ambiance for enjoying a cup of tea.
+The RESTAURANT LA MAMMA is located in Sidi Bouzid, Tunisia, at the following coordinates: (35.031703412371, 9.465656233972). 
+This restaurant offers a variety of dishes and has received a 4.4-star rating. It is open from 00:00-23:00, but closed on Sundays. You can reach the restaurant by phone at 98 235 744.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7434,12 +10257,57 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out resaurant ALI BABA located at 2FQV+XC5 resaurant ALI BABA, Sidi Bouzid. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>Resaurant ALI BABA is a restaurant located in Sidi Bouzid, Tunisia. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is located at the coordinates (35.0388485, 9.4902576).</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>What is the location of the top-rated restaurant ALI BABA in Sidi Bouzid, known for its excellent dining options with a rating of 4.0?</t>
+          <t>Day Plan:
+Morning: Explore the local market, discovering the vibrant colors and scents of Tunisian produce and handicrafts.
+Mid-Morning: Visit the ISIE Sidi Bouzid for an insight into the administrative workings of the region.
+Midday: Indulge in a traditional meal at Restaurant Alkhayma Sidi Bouzid, renowned for its authentic Tunisian dishes.
+Afternoon: Uncover the spiritual side of the city at Sidi Bouzid, an ancient abbey showcasing religious and historical significance.
+Evening: Head to **MIX FOOD** for a flavorful dining experience, savoring the tantalizing tastes of Mexican cuisine.
+Night: Immerse yourself in the local ambiance at Casablanca, a charming tea room perfect for sipping tea and mingling with the locals.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Kamchatka lounge coffee is a cafe located in Sidi Bouzid, Tunisia. It's a great place to relax and enjoy a cup of coffee or tea. The cafe also offers a variety of snacks and pastries. Kamchatka lounge coffee is located at 2FMR+3XV Sidi Bouzid, Tunisia. It is open from 8:00am to 12:00am, 7 days a week.
+Casablanca is a tea room located in Sidi Bouzid, Tunisia, at the coordinates (35.0388485, 9.4902576). It is highly rated, with 4.6 stars based on 10 reviews. Casablanca is open daily from 7:00 AM to midnight and offers a cozy ambiance for enjoying a cup of tea.
+Restaurant Alkhayma Sidi Bouzid is a 5-star restaurant located in Sidi Bouzid, Tunisia. It offers a variety of dishes, and is open from 8am to 9pm. The restaurant is located at Bd Mohamed Bouazizi, and can be contacted at 90 363 142.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7537,12 +10405,57 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great Pizzeria, check out Foodies located at Foodies, mrkz ltkwyn lmhny wltdryb lSn`y bsydy bwzyd, l'Union Maghreb Arabe, Sidi Bouzid. This top-rated destination is perfect for Pizzeria lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 92 785 901.</t>
+          <t>Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Pizzeria with a range of categories to choose from in Sidi Bouzid, Tunisia?</t>
+          <t>Day Plan:
+Morning: Explore the Sidi Bouzid Kinesiology practice (Sidi Bouzid)
+Mid-Morning: Visit the recipe-fish-seafood restaurant for a seafood brunch (recipe-fish-seafood)
+Midday: Relax at the MIX FOOD Mexican restaurant and enjoy a delicious lunch (MIX FOOD)
+Afternoon: Take a guided tour of the Societe de Mohamed technology museum (Societe de Mohamed)
+Evening: Experience the local ambiance at Cafe El Amir for dinner (Cafe El Amir)
+Night: Go stargazing at the scenic Taxi station (Taxi station)</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El Amir is a cafe located in Sidi Bouzid, Tunisia. The cafe is rated 5.0 stars on Google and has received 4 reviews. The cafe's main category is Cafe and its coordinates are (35.0388485, 9.4902576). The cafe's featured image is https://lh5.googleusercontent.com/p/AF1QipMKqsS4-oRJZ1v_SOPCHLgHCgRxSxOE3WT3iOYf=w408-h725-k-no.
+The Gold is a tea room located in Sidi Bouzid. It has a rating of 4.3 out of 5 stars based on 3 reviews. The featured image shows a cozy and inviting atmosphere.
+Pizza_Maestro is a 4.0 star rated restaurant located in Sidi Bouzid, Tunisia. It has 8 reviews and is open from 8:00 AM to 11:00 PM.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7640,14 +10553,57 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out mT`m lmr `byd - Restaurant Abid located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D8%A7%D9%84%D8%A7%D9%85%D8%B1%D8%A7%D8%A1+%D8%B9%D8%A8%D9%8A%D8%AF+-+Restaurant+Abid%E2%80%AD/data=!4m7!3m6!1s0x12fec3cd942a1dbb:0xe83224f18cadece8!8m2!3d35.0392386!4d9.4913007!16s%2Fg%2F11fd5js59c!19sChIJux0qlM3D_hIR6OytjPEkMug?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>**mT`m lmr `byd - Restaurant Abid** is a restaurant located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid (35.0388485, 9.4902576). Its rating is 5/5 with 1 review. No other information is available at this day.</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with a 5.0 rating, offering a variety of dining options in Sidi Bouzid?</t>
+          <t>Day Plan:
+Morning: Exploring the historical Sidi Bouzid Abbey
+Mid-Morning: Trying local cuisine at MIX FOOD, a highly-rated Mexican restaurant
+Midday: Visiting ISIE Sidi Bouzid, a local administrative establishment
+Afternoon: Enjoying the scenic views at ROXY Pizzeria
+Evening: Engaging in outdoor activities at Bouzid, a local mechanic shop, for scenic drives or vehicle repairs
+Night: Relaxing with a cup of tea and enjoying the cozy ambiance at Casablanca tea room</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Kimo cafe** is a cozy cafe located in Sidi Bouzid, Tunisia. It offers a warm and inviting atmosphere, perfect for relaxing and enjoying a cup of coffee or tea. The cafe also serves a variety of pastries and snacks, making it the perfect place to grab a bite to eat. Kimo cafe is conveniently located in the heart of Sidi Bouzid, making it easy to access. With its friendly staff and great coffee, Kimo cafe is the perfect place to relax and enjoy a moment of peace.
+Casablanca is a tea room located in Sidi Bouzid, Tunisia, at the coordinates (35.0388485, 9.4902576). It is highly rated, with 4.6 stars based on 10 reviews. Casablanca is open daily from 7:00 AM to midnight and offers a cozy ambiance for enjoying a cup of tea.
+L'yasmina, a renowned restaurant situated at 2FQQ+QMF L'yasmina, rue ibn mandhour, Sidi Bouzid, offers delectable culinary delights. Boasting a remarkable rating of 4.8, it is renowned for its exceptional cuisine. With a convenient opening time of 8 AM to 9 PM, excluding Sundays, it provides a welcoming atmosphere for diners.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7753,12 +10709,57 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated spot, visit Break Time Fast food located at 2FRR+9JF Break Time Fast food. This destination is perfect for Restaurant lovers and offers Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-10:00, but closed on dimanche. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website at  or call them at 52 246 534.</t>
+          <t>**Break Time Fast Food** in Sidi Bouzid is a highly-rated restaurant (5.0 stars from 1 review) that opens from 7:00 AM to 10:00 AM daily. It is closed on Sundays. Located at coordinates (35.0388485, 9.4902576), the restaurant's main category is "Restaurant" and it offers various dining options to customers in the area.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>What is the name of the highly-rated restaurant located in Sidi Bouzid, known for its excellent Restaurant menu and a perfect 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the historical abbey of Sidi Bouzid, renowned for its religious and historical significance.
+Mid-Morning: Indulge in the authentic flavors of Sidi Bouzid by trying local cuisine at the highly-rated MEXICAN FOOD restaurant, known for its delectable Mexican dishes.
+Midday: Embark on a guided tour of the ISIE Sidi Bouzid, an administrative establishment that offers insights into the local governance.
+Afternoon: Immerse yourself in nature and enjoy recreational activities at the serene Sidi Bouzid park. Take a refreshing stroll, bask in the sunlight, or engage in outdoor sports.
+Evening: Pamper yourself with a relaxing and rejuvenating experience at a local spa or hotel, indulging in soothing treatments or enjoying the hotel's amenities.
+Night: Cap off your day with a delightful dining experience at the Ezzahra café, a 24/7 establishment with excellent reviews, offering a cozy ambiance and delicious food options.</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Ezzahra cafe is a cafe located in Sidi Bouzid, Tunisia. It's a 24/7 cafe with 4/5 stars reviews on Google and is located in the following coordinates: 35.0388485, 9.4902576.
+Located in Sidi Bouzid, The Lodge is a tea room that offers a delightful breakfast. It's located at the coordinates (35.034902, 9.4619265). With a 4.6 rating based on 19 reviews, The Lodge is highly recommended for its cozy ambiance and delicious offerings.
+**mT`m lmr `byd - Restaurant Abid** is a restaurant located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid (35.0388485, 9.4902576). Its rating is 5/5 with 1 review. No other information is available at this day.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7860,12 +10861,59 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid, vivarium cafe at 5 rue Palestine is a must-visit spot for Cafe enthusiasts. With a 4.0 rating and open 24 hours a day, you'll never miss out on enjoying their offerings. For more information, visit their website or call them. GPS coordinates: (35.038021317603, 9.494247474676)</t>
+          <t>**Vivarium Cafe** is a highly-rated (4.0/5) cafe located at 5 rue Palestine in Sidi Bouzid, Tunisia. It offers a wide range of hot and cold beverages, as well as a variety of snacks and light meals. It is a great place to relax with friends or grab a quick bite to eat.
+**Coordinates:** (35.038021317603, 9.494247474676)
+**Hours:** Open 24 hours a day</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated café in Sidi Bouzid that is open 24 hours a day, known for its exceptional offerings and convenient location?</t>
+          <t>Day Plan:
+Morning: Explore the historic abbey of **Sidi Bouzid**, a popular tourist destination with religious and historical significance.
+Mid-Morning: Head to **Taxi Station** for a convenient taxi ride to **MIX FOOD**, a highly-rated Mexican restaurant. Indulge in authentic Mexican cuisine and savor the appetizing dishes it offers.
+Midday: After lunch, visit the **Societe de Mohamed**, a technology museum showcasing the industrial development of the region. Its free admission offers an enlightening glimpse into the local technological advancements.
+Afternoon: Take a leisurely stroll through **Cafe Margoum**, a charming cafe open 24/7 with a 5.0-star rating. Enjoy a sip of coffee or tea while soaking in the local ambiance.
+Evening: Explore the **ISIE Sidi Bouzid**, a government building where you can learn about the administrative services it provides to the region's residents.
+Night: To cap off the day, dine at **recipe-fish-seafood**, a restaurant specializing in seafood cuisine with a perfect 5.0 rating. Relish the flavors of the sea in a cozy and welcoming atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Margoum** is a cafe located in Sidi Bouzid, Tunisia. It's open 24/7 and has a rating of 5.0 stars. The cafe's main category is Cafe. Cafe Margoum is located at the coordinates (35.0388485, 9.4902576).
+Casablanca is a 4.6-rated tea room located in Sidi Bouzid, Tunisia. It is open from 7am to midnight every day, and serves a variety of teas and pastries. Casablanca also has a featured image, reviews, and a link to its website.
+Pizza_Maestro is a 4.0 star rated restaurant located in Sidi Bouzid, Tunisia. It has 8 reviews and is open from 8:00 AM to 11:00 PM.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7963,14 +11011,57 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Station louage de Sidi Bouzid located at Station louage de Sidi Bouzid, mHT@ lHflt, Bd Mohamed Bouazizi, Sidi Bouzid. 
-This top-rated destination is perfect for Service de taxi lovers and offers a range of Service de taxi to choose from. 
-With a rating of 3.0, it's a must-visit spot. For more details, visit their link at https://www.google.com/maps/place/Station+louage+de+Sidi+Bouzid/data=!4m7!3m6!1s0x12fec3ddc78ee22f:0xff2479ecad49b880!8m2!3d35.0439943!4d9.4963418!16s%2Fg%2F11q42k_8kt!19sChIJL-KOx93D_hIRgLhJrex5JP8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Station louage de Sidi Bouzid is a taxi service located in Sidi Bouzid, Tunisia. It offers transportation services to various destinations and has received mixed reviews from customers, with a rating of 3.0 out of 5.</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated location in Sidi Bouzid that offers an array of taxi services?</t>
+          <t>Day Plan:
+Morning: Exploring Sidi Bouzid and visiting the Sidi Bouzid abbey.
+Mid-Morning: Trying local cuisine at the highly rated "The cup" cafe.
+Midday: Visiting the ISIE Sidi Bouzid, an administrative establishment with historical significance.
+Afternoon: Enjoying a relaxing walk in the scenic surroundings of Sidi Bouzid, taking in the beautiful views.
+Evening: Indulging in delicious Mexican cuisine at the highly-rated MIX FOOD restaurant.
+Night: Participating in a cultural immersion experience at the Societe de Mohamed technology museum.</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located at coordinates (35.0388485, 9.4902576) in Sidi Bouzid, "The cup" is a highly rated cafe with a 5.0 rating based on 3 reviews. The cafe offers a 24-hour service and is known for its cozy atmosphere and delicious offerings.
+**Big 4 Coffee Lounge**: A cozy coffee lounge located in the heart of Sidi Bouzid, Tunisia. Situated at coordinates (35.034902, 9.4619265), it offers a relaxing ambiance and a delightful menu of coffee, tea, and snacks.
+Resaurant ALI BABA is a restaurant located in Sidi Bouzid, Tunisia. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is located at the coordinates (35.0388485, 9.4902576).
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8068,14 +11159,57 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a train station, check out mstwd` Hflt lnql l`mwmy located at mstwd` Hflt lnql l`mwmy, Sidi Bouzid. 
-This top-rated destination is perfect for train station lovers. 
-With a rating of 2.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>The bus station `mstwd` Hflt lnql l`mwmy is located in Sidi Bouzid, Tunisia. It is a medium-sized station with 3 reviews and an average rating of 2.0 stars. The station offers a variety of services including bus ticketing, baggage storage, and a waiting area. It is located near the center of the city, making it easy to access by foot or public transportation.</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find a highly rated train station, perfect for train enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Sidi Bouzid abbey (Sidi Bouzid)
+Mid-Morning: Trying local cuisine at the highly-rated MIX FOOD (Mexican restaurant)
+Midday: Visiting the intriguing Societe de Mohamed (technology museum)
+Afternoon: Enjoying a relaxing walk at the scenic ISIE Sidi Bouzid (administrative establishment)
+Evening: Participating in an event or activity at the centrally located Bd Mohamed Bouazizi
+Night: Experiencing the vibrant atmosphere of ROXY Pizzeria (popular pizza spot)</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Given these locations:
+BEN jaloul is a 5-star rated cafe located in Sidi Bouzid, Tunisia. It is open from 7:00 AM to 11:30 PM and offers a variety of food and drinks. The cafe is located at the following coordinates: 35.0421933, 9.4950972.
+The Gold is a tea room located in Sidi Bouzid. It has a rating of 4.3 out of 5 stars based on 3 reviews. The featured image shows a cozy and inviting atmosphere.
+**mT`m lmr `byd - Restaurant Abid** is a restaurant located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid (35.0388485, 9.4902576). Its rating is 5/5 with 1 review. No other information is available at this day.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8169,12 +11303,57 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Taxi station located at 2FQQ+945 Taxi station, Sidi Bouzid. This top-rated destination is perfect for Station de taxis lovers and offers a range of Station de taxis to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.0383756, 9.4876022. For more details, visit their website at https://www.google.com/maps/place/Taxi+station/data=!4m7!3m6!1s0x12fec3a05a3c9c4b:0x8844b46c75b038af!8m2!3d35.0383994!4d9.4878531!16s%2Fg%2F11fnxtq68z!19sChIJS5w8WqDD_hIRrziwdWy0RIg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>Where in Sidi Bouzid can you find a top-rated taxi station with exceptional Station de taxis options and a rating of 5.0?</t>
+          <t>Day Plan:
+Morning: Explore the historic Sidi Bouzid Abbey, a popular tourist destination with religious and historical significance.
+Mid-Morning: Visit Societe de Mohamed, a technology museum that offers insights into the history and development of technology in the local industry.
+Midday: Head to MIX FOOD, a highly-rated Mexican restaurant, and savor delicious Mexican cuisine for lunch.
+Afternoon: Engage in outdoor activities at a park or beach, enjoying the scenic beauty of Sidi Bouzid.
+Evening: Experience cultural immersion at the ISIE Sidi Bouzid, a government building that offers administrative services and insights into the local governance system.
+Night: Indulge in local cuisine at Pizzeria Maboub, known for its top-rated pizzas and delectable food options.</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El woroud is a highly-rated cafe in Sidi Bouzid, Tunisia, boasting a 4.8-star rating from 20 reviews. Situated at coordinates (35.034902, 9.4619265), it is open daily from 6 AM to midnight. While the cafe's description is currently unavailable, it offers a cozy ambiance for customers to enjoy its coffee and cafe menu.
+The Gold is a tea room located in Sidi Bouzid. It has a rating of 4.3 out of 5 stars based on 3 reviews. The featured image shows a cozy and inviting atmosphere.
+Pizza_Maestro is a 4.0 star rated restaurant located in Sidi Bouzid, Tunisia. It has 8 reviews and is open from 8:00 AM to 11:00 PM.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8268,15 +11447,63 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a reliable taxi service, check out mHT@ syrt lnql byn lmdn  lwj located at 2FVW+HGH mHT@ syrt lnql byn lmdn  lwj , C83. 
-This top-rated taxi station is perfect for travelers and offers a convenient transportation option. 
-With a rating of 5.0, it's a must-visit spot for getting around the city. Open 24/7, mHT@ syrt lnql byn lmdn  lwj is always available when you need it. 
-To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated taxi station open 24/7 in Sidi Bouzid with precise GPS coordinates?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore Sidi Bouzid town center and visit the charming tea room "The Lodge" for a delightful breakfast.
+**Mid-Morning:**
+- Take a guided tour of the ISIE Sidi Bouzid, a government building offering insights into local governance.
+**Midday:**
+- Indulge in a hearty lunch at **Break Time Fast Food**, a highly-rated restaurant.
+**Afternoon:**
+- Explore the intriguing Societe de Mohamed, a technology museum showcasing the region's technological advancements.
+**Evening:**
+- Visit the scenic Sidi Bouzid abbey, a popular tourist destination with historical and religious significance.
+**Night:**
+- Savor a delicious Mexican dinner at **MIX FOOD**, a highly-rated restaurant known for its authentic dishes.</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Restaurant BALANCE is a cafe located in Sidi Bouzid, Tunisia. It has a rating of 4.5 stars based on 2 reviews. It is open from 8:00 AM to 8:00 PM and offers a variety of cafe fare. The cafe is located at the coordinates (35.034902, 9.4619265).
+Nestled in the heart of Sidi Bouzid, "The Lodge" is a charming tea room that offers a delightful escape. Situated at coordinates (35.034902, 9.4619265), it welcomes guests to savor a delectable breakfast in a cozy and inviting ambiance.
+**Break Time Fast Food** in Sidi Bouzid is a highly-rated restaurant (5.0 stars from 1 review) that opens from 7:00 AM to 10:00 AM daily. It is closed on Sundays. Located at coordinates (35.0388485, 9.4902576), the restaurant's main category is "Restaurant" and it offers various dining options to customers in the area.
+Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.
+Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.
+The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.
+Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.
+Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.
+ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.
+**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.
+recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).
+This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
